--- a/Data/specPowerDatamartTransform.xlsx
+++ b/Data/specPowerDatamartTransform.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP242"/>
+  <dimension ref="A1:AQ242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,20 +559,25 @@
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
+          <t># Threads Per Core</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>Processor</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>DIMMS</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Power Supply Details</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Power Supply Rating (watts)</t>
         </is>
@@ -694,7 +699,7 @@
         <v>64</v>
       </c>
       <c r="AM2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN2" t="n">
         <v>1</v>
@@ -703,6 +708,9 @@
         <v>1</v>
       </c>
       <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>650</v>
       </c>
     </row>
@@ -822,7 +830,7 @@
         <v>64</v>
       </c>
       <c r="AM3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN3" t="n">
         <v>1</v>
@@ -831,6 +839,9 @@
         <v>1</v>
       </c>
       <c r="AP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>650</v>
       </c>
     </row>
@@ -950,15 +961,18 @@
         <v>64</v>
       </c>
       <c r="AM4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN4" t="n">
         <v>1</v>
       </c>
-      <c r="AN4" t="n">
-        <v>2</v>
-      </c>
       <c r="AO4" t="n">
         <v>2</v>
       </c>
       <c r="AP4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>800</v>
       </c>
     </row>
@@ -1078,15 +1092,18 @@
         <v>64</v>
       </c>
       <c r="AM5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN5" t="n">
         <v>1</v>
       </c>
-      <c r="AN5" t="n">
-        <v>2</v>
-      </c>
       <c r="AO5" t="n">
         <v>2</v>
       </c>
       <c r="AP5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>800</v>
       </c>
     </row>
@@ -1209,12 +1226,15 @@
         <v>2</v>
       </c>
       <c r="AN6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO6" t="n">
         <v>3</v>
       </c>
       <c r="AP6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>850</v>
       </c>
     </row>
@@ -1337,12 +1357,15 @@
         <v>2</v>
       </c>
       <c r="AN7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO7" t="n">
         <v>3</v>
       </c>
       <c r="AP7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>850</v>
       </c>
     </row>
@@ -1462,7 +1485,7 @@
         <v>28</v>
       </c>
       <c r="AM8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN8" t="n">
         <v>3</v>
@@ -1471,6 +1494,9 @@
         <v>3</v>
       </c>
       <c r="AP8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>850</v>
       </c>
     </row>
@@ -1590,15 +1616,18 @@
         <v>28</v>
       </c>
       <c r="AM9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN9" t="n">
         <v>4</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AO9" t="n">
         <v>3</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AP9" t="n">
         <v>4</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AQ9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1718,15 +1747,18 @@
         <v>18</v>
       </c>
       <c r="AM10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN10" t="n">
         <v>5</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AO10" t="n">
         <v>4</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AP10" t="n">
         <v>5</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AQ10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1846,7 +1878,7 @@
         <v>18</v>
       </c>
       <c r="AM11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AN11" t="n">
         <v>5</v>
@@ -1855,6 +1887,9 @@
         <v>5</v>
       </c>
       <c r="AP11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1974,15 +2009,18 @@
         <v>22</v>
       </c>
       <c r="AM12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN12" t="n">
         <v>6</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AO12" t="n">
         <v>1</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AP12" t="n">
         <v>4</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AQ12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2102,15 +2140,18 @@
         <v>18</v>
       </c>
       <c r="AM13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN13" t="n">
         <v>7</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AO13" t="n">
         <v>6</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AP13" t="n">
         <v>4</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AQ13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2230,15 +2271,18 @@
         <v>6</v>
       </c>
       <c r="AM14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN14" t="n">
         <v>8</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AO14" t="n">
         <v>7</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AP14" t="n">
         <v>6</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AQ14" t="n">
         <v>250</v>
       </c>
     </row>
@@ -2358,15 +2402,18 @@
         <v>18</v>
       </c>
       <c r="AM15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN15" t="n">
         <v>5</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AO15" t="n">
         <v>8</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AP15" t="n">
         <v>7</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AQ15" t="n">
         <v>750</v>
       </c>
     </row>
@@ -2486,15 +2533,18 @@
         <v>22</v>
       </c>
       <c r="AM16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN16" t="n">
         <v>6</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AO16" t="n">
         <v>1</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AP16" t="n">
         <v>7</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AQ16" t="n">
         <v>750</v>
       </c>
     </row>
@@ -2614,15 +2664,18 @@
         <v>28</v>
       </c>
       <c r="AM17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN17" t="n">
         <v>9</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AO17" t="n">
         <v>3</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AP17" t="n">
         <v>7</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AQ17" t="n">
         <v>750</v>
       </c>
     </row>
@@ -2742,15 +2795,18 @@
         <v>64</v>
       </c>
       <c r="AM18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN18" t="n">
         <v>10</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AO18" t="n">
         <v>6</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AP18" t="n">
         <v>8</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AQ18" t="n">
         <v>800</v>
       </c>
     </row>
@@ -2870,15 +2926,18 @@
         <v>18</v>
       </c>
       <c r="AM19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN19" t="n">
         <v>5</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AO19" t="n">
         <v>8</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AP19" t="n">
         <v>7</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AQ19" t="n">
         <v>750</v>
       </c>
     </row>
@@ -2998,15 +3057,18 @@
         <v>22</v>
       </c>
       <c r="AM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN20" t="n">
         <v>6</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AO20" t="n">
         <v>1</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AP20" t="n">
         <v>7</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AQ20" t="n">
         <v>750</v>
       </c>
     </row>
@@ -3126,15 +3188,18 @@
         <v>22</v>
       </c>
       <c r="AM21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN21" t="n">
         <v>6</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AO21" t="n">
         <v>1</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AP21" t="n">
         <v>7</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AQ21" t="n">
         <v>750</v>
       </c>
     </row>
@@ -3254,15 +3319,18 @@
         <v>28</v>
       </c>
       <c r="AM22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN22" t="n">
         <v>9</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AO22" t="n">
         <v>3</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AP22" t="n">
         <v>7</v>
       </c>
-      <c r="AP22" t="n">
+      <c r="AQ22" t="n">
         <v>750</v>
       </c>
     </row>
@@ -3382,15 +3450,18 @@
         <v>28</v>
       </c>
       <c r="AM23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN23" t="n">
         <v>11</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AO23" t="n">
         <v>3</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AP23" t="n">
         <v>9</v>
       </c>
-      <c r="AP23" t="n">
+      <c r="AQ23" t="n">
         <v>750</v>
       </c>
     </row>
@@ -3510,15 +3581,18 @@
         <v>32</v>
       </c>
       <c r="AM24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN24" t="n">
         <v>12</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AO24" t="n">
         <v>6</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AP24" t="n">
         <v>10</v>
       </c>
-      <c r="AP24" t="n">
+      <c r="AQ24" t="n">
         <v>750</v>
       </c>
     </row>
@@ -3638,15 +3712,18 @@
         <v>32</v>
       </c>
       <c r="AM25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN25" t="n">
         <v>13</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AO25" t="n">
         <v>6</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AP25" t="n">
         <v>11</v>
       </c>
-      <c r="AP25" t="n">
+      <c r="AQ25" t="n">
         <v>1100</v>
       </c>
     </row>
@@ -3766,15 +3843,18 @@
         <v>64</v>
       </c>
       <c r="AM26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN26" t="n">
         <v>14</v>
       </c>
-      <c r="AN26" t="n">
+      <c r="AO26" t="n">
         <v>1</v>
       </c>
-      <c r="AO26" t="n">
+      <c r="AP26" t="n">
         <v>12</v>
       </c>
-      <c r="AP26" t="n">
+      <c r="AQ26" t="n">
         <v>750</v>
       </c>
     </row>
@@ -3894,15 +3974,18 @@
         <v>64</v>
       </c>
       <c r="AM27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN27" t="n">
         <v>10</v>
       </c>
-      <c r="AN27" t="n">
+      <c r="AO27" t="n">
         <v>6</v>
       </c>
-      <c r="AO27" t="n">
+      <c r="AP27" t="n">
         <v>13</v>
       </c>
-      <c r="AP27" t="n">
+      <c r="AQ27" t="n">
         <v>800</v>
       </c>
     </row>
@@ -4022,15 +4105,18 @@
         <v>22</v>
       </c>
       <c r="AM28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN28" t="n">
         <v>15</v>
       </c>
-      <c r="AN28" t="n">
-        <v>2</v>
-      </c>
       <c r="AO28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP28" t="n">
         <v>14</v>
       </c>
-      <c r="AP28" t="n">
+      <c r="AQ28" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -4150,15 +4236,18 @@
         <v>28</v>
       </c>
       <c r="AM29" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AN29" t="n">
         <v>9</v>
       </c>
       <c r="AO29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP29" t="n">
         <v>15</v>
       </c>
-      <c r="AP29" t="n">
+      <c r="AQ29" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -4278,15 +4367,18 @@
         <v>28</v>
       </c>
       <c r="AM30" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AN30" t="n">
         <v>9</v>
       </c>
       <c r="AO30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP30" t="n">
         <v>15</v>
       </c>
-      <c r="AP30" t="n">
+      <c r="AQ30" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -4406,15 +4498,18 @@
         <v>28</v>
       </c>
       <c r="AM31" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AN31" t="n">
         <v>9</v>
       </c>
       <c r="AO31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP31" t="n">
         <v>16</v>
       </c>
-      <c r="AP31" t="n">
+      <c r="AQ31" t="n">
         <v>1100</v>
       </c>
     </row>
@@ -4534,15 +4629,18 @@
         <v>18</v>
       </c>
       <c r="AM32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN32" t="n">
         <v>5</v>
       </c>
-      <c r="AN32" t="n">
+      <c r="AO32" t="n">
         <v>8</v>
       </c>
-      <c r="AO32" t="n">
+      <c r="AP32" t="n">
         <v>7</v>
       </c>
-      <c r="AP32" t="n">
+      <c r="AQ32" t="n">
         <v>750</v>
       </c>
     </row>
@@ -4662,15 +4760,18 @@
         <v>28</v>
       </c>
       <c r="AM33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN33" t="n">
         <v>9</v>
       </c>
-      <c r="AN33" t="n">
+      <c r="AO33" t="n">
         <v>3</v>
       </c>
-      <c r="AO33" t="n">
+      <c r="AP33" t="n">
         <v>17</v>
       </c>
-      <c r="AP33" t="n">
+      <c r="AQ33" t="n">
         <v>750</v>
       </c>
     </row>
@@ -4790,15 +4891,18 @@
         <v>24</v>
       </c>
       <c r="AM34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN34" t="n">
         <v>16</v>
       </c>
-      <c r="AN34" t="n">
+      <c r="AO34" t="n">
         <v>10</v>
       </c>
-      <c r="AO34" t="n">
+      <c r="AP34" t="n">
         <v>5</v>
       </c>
-      <c r="AP34" t="n">
+      <c r="AQ34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4918,15 +5022,18 @@
         <v>64</v>
       </c>
       <c r="AM35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN35" t="n">
         <v>17</v>
       </c>
-      <c r="AN35" t="n">
+      <c r="AO35" t="n">
         <v>11</v>
       </c>
-      <c r="AO35" t="n">
+      <c r="AP35" t="n">
         <v>18</v>
       </c>
-      <c r="AP35" t="n">
+      <c r="AQ35" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5046,15 +5153,18 @@
         <v>4</v>
       </c>
       <c r="AM36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN36" t="n">
         <v>18</v>
       </c>
-      <c r="AN36" t="n">
+      <c r="AO36" t="n">
         <v>12</v>
       </c>
-      <c r="AO36" t="n">
+      <c r="AP36" t="n">
         <v>19</v>
       </c>
-      <c r="AP36" t="n">
+      <c r="AQ36" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5174,15 +5284,18 @@
         <v>4</v>
       </c>
       <c r="AM37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN37" t="n">
         <v>19</v>
       </c>
-      <c r="AN37" t="n">
+      <c r="AO37" t="n">
         <v>12</v>
       </c>
-      <c r="AO37" t="n">
+      <c r="AP37" t="n">
         <v>20</v>
       </c>
-      <c r="AP37" t="n">
+      <c r="AQ37" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5302,15 +5415,18 @@
         <v>4</v>
       </c>
       <c r="AM38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN38" t="n">
         <v>20</v>
       </c>
-      <c r="AN38" t="n">
+      <c r="AO38" t="n">
         <v>12</v>
       </c>
-      <c r="AO38" t="n">
+      <c r="AP38" t="n">
         <v>21</v>
       </c>
-      <c r="AP38" t="n">
+      <c r="AQ38" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5430,15 +5546,18 @@
         <v>6</v>
       </c>
       <c r="AM39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN39" t="n">
         <v>8</v>
       </c>
-      <c r="AN39" t="n">
+      <c r="AO39" t="n">
         <v>12</v>
       </c>
-      <c r="AO39" t="n">
+      <c r="AP39" t="n">
         <v>22</v>
       </c>
-      <c r="AP39" t="n">
+      <c r="AQ39" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5558,15 +5677,18 @@
         <v>8</v>
       </c>
       <c r="AM40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN40" t="n">
         <v>21</v>
       </c>
-      <c r="AN40" t="n">
+      <c r="AO40" t="n">
         <v>12</v>
       </c>
-      <c r="AO40" t="n">
+      <c r="AP40" t="n">
         <v>23</v>
       </c>
-      <c r="AP40" t="n">
+      <c r="AQ40" t="n">
         <v>450</v>
       </c>
     </row>
@@ -5686,15 +5808,18 @@
         <v>18</v>
       </c>
       <c r="AM41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN41" t="n">
         <v>22</v>
       </c>
-      <c r="AN41" t="n">
+      <c r="AO41" t="n">
         <v>10</v>
       </c>
-      <c r="AO41" t="n">
+      <c r="AP41" t="n">
         <v>24</v>
       </c>
-      <c r="AP41" t="n">
+      <c r="AQ41" t="n">
         <v>800</v>
       </c>
     </row>
@@ -5814,15 +5939,18 @@
         <v>18</v>
       </c>
       <c r="AM42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN42" t="n">
         <v>23</v>
       </c>
-      <c r="AN42" t="n">
+      <c r="AO42" t="n">
         <v>8</v>
       </c>
-      <c r="AO42" t="n">
+      <c r="AP42" t="n">
         <v>25</v>
       </c>
-      <c r="AP42" t="n">
+      <c r="AQ42" t="n">
         <v>800</v>
       </c>
     </row>
@@ -5942,15 +6070,18 @@
         <v>22</v>
       </c>
       <c r="AM43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN43" t="n">
         <v>24</v>
       </c>
-      <c r="AN43" t="n">
+      <c r="AO43" t="n">
         <v>8</v>
       </c>
-      <c r="AO43" t="n">
+      <c r="AP43" t="n">
         <v>25</v>
       </c>
-      <c r="AP43" t="n">
+      <c r="AQ43" t="n">
         <v>800</v>
       </c>
     </row>
@@ -6070,15 +6201,18 @@
         <v>28</v>
       </c>
       <c r="AM44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN44" t="n">
         <v>25</v>
       </c>
-      <c r="AN44" t="n">
+      <c r="AO44" t="n">
         <v>10</v>
       </c>
-      <c r="AO44" t="n">
+      <c r="AP44" t="n">
         <v>25</v>
       </c>
-      <c r="AP44" t="n">
+      <c r="AQ44" t="n">
         <v>800</v>
       </c>
     </row>
@@ -6198,15 +6332,18 @@
         <v>22</v>
       </c>
       <c r="AM45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN45" t="n">
         <v>24</v>
       </c>
-      <c r="AN45" t="n">
+      <c r="AO45" t="n">
         <v>8</v>
       </c>
-      <c r="AO45" t="n">
+      <c r="AP45" t="n">
         <v>25</v>
       </c>
-      <c r="AP45" t="n">
+      <c r="AQ45" t="n">
         <v>800</v>
       </c>
     </row>
@@ -6326,15 +6463,18 @@
         <v>28</v>
       </c>
       <c r="AM46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN46" t="n">
         <v>4</v>
       </c>
-      <c r="AN46" t="n">
+      <c r="AO46" t="n">
         <v>3</v>
       </c>
-      <c r="AO46" t="n">
+      <c r="AP46" t="n">
         <v>25</v>
       </c>
-      <c r="AP46" t="n">
+      <c r="AQ46" t="n">
         <v>800</v>
       </c>
     </row>
@@ -6457,12 +6597,15 @@
         <v>2</v>
       </c>
       <c r="AN47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO47" t="n">
         <v>10</v>
       </c>
-      <c r="AO47" t="n">
+      <c r="AP47" t="n">
         <v>25</v>
       </c>
-      <c r="AP47" t="n">
+      <c r="AQ47" t="n">
         <v>800</v>
       </c>
     </row>
@@ -6582,15 +6725,18 @@
         <v>28</v>
       </c>
       <c r="AM48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN48" t="n">
         <v>25</v>
       </c>
-      <c r="AN48" t="n">
+      <c r="AO48" t="n">
         <v>10</v>
       </c>
-      <c r="AO48" t="n">
+      <c r="AP48" t="n">
         <v>25</v>
       </c>
-      <c r="AP48" t="n">
+      <c r="AQ48" t="n">
         <v>800</v>
       </c>
     </row>
@@ -6710,15 +6856,18 @@
         <v>18</v>
       </c>
       <c r="AM49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN49" t="n">
         <v>23</v>
       </c>
-      <c r="AN49" t="n">
+      <c r="AO49" t="n">
         <v>8</v>
       </c>
-      <c r="AO49" t="n">
+      <c r="AP49" t="n">
         <v>25</v>
       </c>
-      <c r="AP49" t="n">
+      <c r="AQ49" t="n">
         <v>800</v>
       </c>
     </row>
@@ -6838,15 +6987,18 @@
         <v>22</v>
       </c>
       <c r="AM50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN50" t="n">
         <v>24</v>
       </c>
-      <c r="AN50" t="n">
+      <c r="AO50" t="n">
         <v>8</v>
       </c>
-      <c r="AO50" t="n">
+      <c r="AP50" t="n">
         <v>25</v>
       </c>
-      <c r="AP50" t="n">
+      <c r="AQ50" t="n">
         <v>800</v>
       </c>
     </row>
@@ -6966,15 +7118,18 @@
         <v>28</v>
       </c>
       <c r="AM51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN51" t="n">
         <v>4</v>
       </c>
-      <c r="AN51" t="n">
+      <c r="AO51" t="n">
         <v>13</v>
       </c>
-      <c r="AO51" t="n">
+      <c r="AP51" t="n">
         <v>26</v>
       </c>
-      <c r="AP51" t="n">
+      <c r="AQ51" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -7094,15 +7249,18 @@
         <v>28</v>
       </c>
       <c r="AM52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN52" t="n">
         <v>4</v>
       </c>
-      <c r="AN52" t="n">
+      <c r="AO52" t="n">
         <v>13</v>
       </c>
-      <c r="AO52" t="n">
+      <c r="AP52" t="n">
         <v>26</v>
       </c>
-      <c r="AP52" t="n">
+      <c r="AQ52" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -7222,15 +7380,18 @@
         <v>28</v>
       </c>
       <c r="AM53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN53" t="n">
         <v>4</v>
       </c>
-      <c r="AN53" t="n">
+      <c r="AO53" t="n">
         <v>13</v>
       </c>
-      <c r="AO53" t="n">
+      <c r="AP53" t="n">
         <v>26</v>
       </c>
-      <c r="AP53" t="n">
+      <c r="AQ53" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -7353,12 +7514,15 @@
         <v>2</v>
       </c>
       <c r="AN54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO54" t="n">
         <v>14</v>
       </c>
-      <c r="AO54" t="n">
+      <c r="AP54" t="n">
         <v>27</v>
       </c>
-      <c r="AP54" t="n">
+      <c r="AQ54" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -7478,15 +7642,18 @@
         <v>28</v>
       </c>
       <c r="AM55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN55" t="n">
         <v>25</v>
       </c>
-      <c r="AN55" t="n">
+      <c r="AO55" t="n">
         <v>14</v>
       </c>
-      <c r="AO55" t="n">
+      <c r="AP55" t="n">
         <v>28</v>
       </c>
-      <c r="AP55" t="n">
+      <c r="AQ55" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -7606,15 +7773,18 @@
         <v>4</v>
       </c>
       <c r="AM56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN56" t="n">
         <v>18</v>
       </c>
-      <c r="AN56" t="n">
+      <c r="AO56" t="n">
         <v>12</v>
       </c>
-      <c r="AO56" t="n">
+      <c r="AP56" t="n">
         <v>29</v>
       </c>
-      <c r="AP56" t="n">
+      <c r="AQ56" t="n">
         <v>250</v>
       </c>
     </row>
@@ -7734,15 +7904,18 @@
         <v>4</v>
       </c>
       <c r="AM57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN57" t="n">
         <v>19</v>
       </c>
-      <c r="AN57" t="n">
+      <c r="AO57" t="n">
         <v>12</v>
       </c>
-      <c r="AO57" t="n">
+      <c r="AP57" t="n">
         <v>30</v>
       </c>
-      <c r="AP57" t="n">
+      <c r="AQ57" t="n">
         <v>250</v>
       </c>
     </row>
@@ -7862,15 +8035,18 @@
         <v>4</v>
       </c>
       <c r="AM58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN58" t="n">
         <v>20</v>
       </c>
-      <c r="AN58" t="n">
+      <c r="AO58" t="n">
         <v>12</v>
       </c>
-      <c r="AO58" t="n">
+      <c r="AP58" t="n">
         <v>31</v>
       </c>
-      <c r="AP58" t="n">
+      <c r="AQ58" t="n">
         <v>250</v>
       </c>
     </row>
@@ -7990,15 +8166,18 @@
         <v>6</v>
       </c>
       <c r="AM59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN59" t="n">
         <v>8</v>
       </c>
-      <c r="AN59" t="n">
+      <c r="AO59" t="n">
         <v>12</v>
       </c>
-      <c r="AO59" t="n">
+      <c r="AP59" t="n">
         <v>32</v>
       </c>
-      <c r="AP59" t="n">
+      <c r="AQ59" t="n">
         <v>250</v>
       </c>
     </row>
@@ -8118,15 +8297,18 @@
         <v>6</v>
       </c>
       <c r="AM60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN60" t="n">
         <v>8</v>
       </c>
-      <c r="AN60" t="n">
+      <c r="AO60" t="n">
         <v>12</v>
       </c>
-      <c r="AO60" t="n">
+      <c r="AP60" t="n">
         <v>32</v>
       </c>
-      <c r="AP60" t="n">
+      <c r="AQ60" t="n">
         <v>250</v>
       </c>
     </row>
@@ -8246,15 +8428,18 @@
         <v>8</v>
       </c>
       <c r="AM61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN61" t="n">
         <v>21</v>
       </c>
-      <c r="AN61" t="n">
+      <c r="AO61" t="n">
         <v>12</v>
       </c>
-      <c r="AO61" t="n">
+      <c r="AP61" t="n">
         <v>23</v>
       </c>
-      <c r="AP61" t="n">
+      <c r="AQ61" t="n">
         <v>450</v>
       </c>
     </row>
@@ -8374,15 +8559,18 @@
         <v>4</v>
       </c>
       <c r="AM62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN62" t="n">
         <v>26</v>
       </c>
-      <c r="AN62" t="n">
+      <c r="AO62" t="n">
         <v>12</v>
       </c>
-      <c r="AO62" t="n">
+      <c r="AP62" t="n">
         <v>33</v>
       </c>
-      <c r="AP62" t="n">
+      <c r="AQ62" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8502,15 +8690,18 @@
         <v>4</v>
       </c>
       <c r="AM63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN63" t="n">
         <v>20</v>
       </c>
-      <c r="AN63" t="n">
+      <c r="AO63" t="n">
         <v>12</v>
       </c>
-      <c r="AO63" t="n">
+      <c r="AP63" t="n">
         <v>34</v>
       </c>
-      <c r="AP63" t="n">
+      <c r="AQ63" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8630,15 +8821,18 @@
         <v>8</v>
       </c>
       <c r="AM64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN64" t="n">
         <v>21</v>
       </c>
-      <c r="AN64" t="n">
+      <c r="AO64" t="n">
         <v>12</v>
       </c>
-      <c r="AO64" t="n">
+      <c r="AP64" t="n">
         <v>35</v>
       </c>
-      <c r="AP64" t="n">
+      <c r="AQ64" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8758,15 +8952,18 @@
         <v>6</v>
       </c>
       <c r="AM65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN65" t="n">
         <v>8</v>
       </c>
-      <c r="AN65" t="n">
+      <c r="AO65" t="n">
         <v>12</v>
       </c>
-      <c r="AO65" t="n">
+      <c r="AP65" t="n">
         <v>35</v>
       </c>
-      <c r="AP65" t="n">
+      <c r="AQ65" t="n">
         <v>300</v>
       </c>
     </row>
@@ -8886,15 +9083,18 @@
         <v>24</v>
       </c>
       <c r="AM66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN66" t="n">
         <v>27</v>
       </c>
-      <c r="AN66" t="n">
+      <c r="AO66" t="n">
         <v>15</v>
       </c>
-      <c r="AO66" t="n">
+      <c r="AP66" t="n">
         <v>24</v>
       </c>
-      <c r="AP66" t="n">
+      <c r="AQ66" t="n">
         <v>800</v>
       </c>
     </row>
@@ -9014,15 +9214,18 @@
         <v>18</v>
       </c>
       <c r="AM67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN67" t="n">
         <v>23</v>
       </c>
-      <c r="AN67" t="n">
+      <c r="AO67" t="n">
         <v>8</v>
       </c>
-      <c r="AO67" t="n">
+      <c r="AP67" t="n">
         <v>25</v>
       </c>
-      <c r="AP67" t="n">
+      <c r="AQ67" t="n">
         <v>800</v>
       </c>
     </row>
@@ -9142,15 +9345,18 @@
         <v>22</v>
       </c>
       <c r="AM68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN68" t="n">
         <v>24</v>
       </c>
-      <c r="AN68" t="n">
+      <c r="AO68" t="n">
         <v>8</v>
       </c>
-      <c r="AO68" t="n">
+      <c r="AP68" t="n">
         <v>25</v>
       </c>
-      <c r="AP68" t="n">
+      <c r="AQ68" t="n">
         <v>800</v>
       </c>
     </row>
@@ -9270,15 +9476,18 @@
         <v>32</v>
       </c>
       <c r="AM69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN69" t="n">
         <v>28</v>
       </c>
-      <c r="AN69" t="n">
+      <c r="AO69" t="n">
         <v>6</v>
       </c>
-      <c r="AO69" t="n">
+      <c r="AP69" t="n">
         <v>36</v>
       </c>
-      <c r="AP69" t="n">
+      <c r="AQ69" t="n">
         <v>850</v>
       </c>
     </row>
@@ -9398,15 +9607,18 @@
         <v>64</v>
       </c>
       <c r="AM70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN70" t="n">
         <v>29</v>
       </c>
-      <c r="AN70" t="n">
-        <v>2</v>
-      </c>
       <c r="AO70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP70" t="n">
         <v>37</v>
       </c>
-      <c r="AP70" t="n">
+      <c r="AQ70" t="n">
         <v>1300</v>
       </c>
     </row>
@@ -9526,15 +9738,18 @@
         <v>22</v>
       </c>
       <c r="AM71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN71" t="n">
         <v>24</v>
       </c>
-      <c r="AN71" t="n">
+      <c r="AO71" t="n">
         <v>5</v>
       </c>
-      <c r="AO71" t="n">
+      <c r="AP71" t="n">
         <v>38</v>
       </c>
-      <c r="AP71" t="n">
+      <c r="AQ71" t="n">
         <v>550</v>
       </c>
     </row>
@@ -9654,15 +9869,18 @@
         <v>64</v>
       </c>
       <c r="AM72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN72" t="n">
         <v>30</v>
       </c>
-      <c r="AN72" t="n">
+      <c r="AO72" t="n">
         <v>16</v>
       </c>
-      <c r="AO72" t="n">
+      <c r="AP72" t="n">
         <v>4</v>
       </c>
-      <c r="AP72" t="n">
+      <c r="AQ72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9782,15 +10000,18 @@
         <v>64</v>
       </c>
       <c r="AM73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN73" t="n">
         <v>30</v>
       </c>
-      <c r="AN73" t="n">
+      <c r="AO73" t="n">
         <v>16</v>
       </c>
-      <c r="AO73" t="n">
+      <c r="AP73" t="n">
         <v>4</v>
       </c>
-      <c r="AP73" t="n">
+      <c r="AQ73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9910,15 +10131,18 @@
         <v>64</v>
       </c>
       <c r="AM74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN74" t="n">
         <v>30</v>
       </c>
-      <c r="AN74" t="n">
+      <c r="AO74" t="n">
         <v>16</v>
       </c>
-      <c r="AO74" t="n">
+      <c r="AP74" t="n">
         <v>4</v>
       </c>
-      <c r="AP74" t="n">
+      <c r="AQ74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10038,15 +10262,18 @@
         <v>64</v>
       </c>
       <c r="AM75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN75" t="n">
         <v>14</v>
       </c>
-      <c r="AN75" t="n">
+      <c r="AO75" t="n">
         <v>16</v>
       </c>
-      <c r="AO75" t="n">
+      <c r="AP75" t="n">
         <v>4</v>
       </c>
-      <c r="AP75" t="n">
+      <c r="AQ75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10166,15 +10393,18 @@
         <v>64</v>
       </c>
       <c r="AM76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN76" t="n">
         <v>31</v>
       </c>
-      <c r="AN76" t="n">
+      <c r="AO76" t="n">
         <v>17</v>
       </c>
-      <c r="AO76" t="n">
+      <c r="AP76" t="n">
         <v>39</v>
       </c>
-      <c r="AP76" t="n">
+      <c r="AQ76" t="n">
         <v>800</v>
       </c>
     </row>
@@ -10294,15 +10524,18 @@
         <v>64</v>
       </c>
       <c r="AM77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN77" t="n">
         <v>31</v>
       </c>
-      <c r="AN77" t="n">
+      <c r="AO77" t="n">
         <v>17</v>
       </c>
-      <c r="AO77" t="n">
+      <c r="AP77" t="n">
         <v>40</v>
       </c>
-      <c r="AP77" t="n">
+      <c r="AQ77" t="n">
         <v>800</v>
       </c>
     </row>
@@ -10422,15 +10655,18 @@
         <v>64</v>
       </c>
       <c r="AM78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN78" t="n">
         <v>31</v>
       </c>
-      <c r="AN78" t="n">
+      <c r="AO78" t="n">
         <v>17</v>
       </c>
-      <c r="AO78" t="n">
+      <c r="AP78" t="n">
         <v>40</v>
       </c>
-      <c r="AP78" t="n">
+      <c r="AQ78" t="n">
         <v>800</v>
       </c>
     </row>
@@ -10550,15 +10786,18 @@
         <v>32</v>
       </c>
       <c r="AM79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN79" t="n">
         <v>32</v>
       </c>
-      <c r="AN79" t="n">
+      <c r="AO79" t="n">
         <v>17</v>
       </c>
-      <c r="AO79" t="n">
+      <c r="AP79" t="n">
         <v>40</v>
       </c>
-      <c r="AP79" t="n">
+      <c r="AQ79" t="n">
         <v>800</v>
       </c>
     </row>
@@ -10678,15 +10917,18 @@
         <v>28</v>
       </c>
       <c r="AM80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN80" t="n">
         <v>33</v>
       </c>
-      <c r="AN80" t="n">
+      <c r="AO80" t="n">
         <v>18</v>
       </c>
-      <c r="AO80" t="n">
+      <c r="AP80" t="n">
         <v>41</v>
       </c>
-      <c r="AP80" t="n">
+      <c r="AQ80" t="n">
         <v>800</v>
       </c>
     </row>
@@ -10806,15 +11048,18 @@
         <v>28</v>
       </c>
       <c r="AM81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN81" t="n">
         <v>34</v>
       </c>
-      <c r="AN81" t="n">
+      <c r="AO81" t="n">
         <v>18</v>
       </c>
-      <c r="AO81" t="n">
+      <c r="AP81" t="n">
         <v>41</v>
       </c>
-      <c r="AP81" t="n">
+      <c r="AQ81" t="n">
         <v>800</v>
       </c>
     </row>
@@ -10934,15 +11179,18 @@
         <v>28</v>
       </c>
       <c r="AM82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN82" t="n">
         <v>35</v>
       </c>
-      <c r="AN82" t="n">
+      <c r="AO82" t="n">
         <v>18</v>
       </c>
-      <c r="AO82" t="n">
+      <c r="AP82" t="n">
         <v>41</v>
       </c>
-      <c r="AP82" t="n">
+      <c r="AQ82" t="n">
         <v>800</v>
       </c>
     </row>
@@ -11062,15 +11310,18 @@
         <v>28</v>
       </c>
       <c r="AM83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN83" t="n">
         <v>35</v>
       </c>
-      <c r="AN83" t="n">
+      <c r="AO83" t="n">
         <v>19</v>
       </c>
-      <c r="AO83" t="n">
+      <c r="AP83" t="n">
         <v>41</v>
       </c>
-      <c r="AP83" t="n">
+      <c r="AQ83" t="n">
         <v>800</v>
       </c>
     </row>
@@ -11190,15 +11441,18 @@
         <v>28</v>
       </c>
       <c r="AM84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN84" t="n">
         <v>35</v>
       </c>
-      <c r="AN84" t="n">
+      <c r="AO84" t="n">
         <v>18</v>
       </c>
-      <c r="AO84" t="n">
+      <c r="AP84" t="n">
         <v>42</v>
       </c>
-      <c r="AP84" t="n">
+      <c r="AQ84" t="n">
         <v>800</v>
       </c>
     </row>
@@ -11318,15 +11572,18 @@
         <v>28</v>
       </c>
       <c r="AM85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN85" t="n">
         <v>35</v>
       </c>
-      <c r="AN85" t="n">
+      <c r="AO85" t="n">
         <v>19</v>
       </c>
-      <c r="AO85" t="n">
+      <c r="AP85" t="n">
         <v>42</v>
       </c>
-      <c r="AP85" t="n">
+      <c r="AQ85" t="n">
         <v>800</v>
       </c>
     </row>
@@ -11446,15 +11703,18 @@
         <v>28</v>
       </c>
       <c r="AM86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN86" t="n">
         <v>35</v>
       </c>
-      <c r="AN86" t="n">
+      <c r="AO86" t="n">
         <v>19</v>
       </c>
-      <c r="AO86" t="n">
+      <c r="AP86" t="n">
         <v>42</v>
       </c>
-      <c r="AP86" t="n">
+      <c r="AQ86" t="n">
         <v>800</v>
       </c>
     </row>
@@ -11574,15 +11834,18 @@
         <v>18</v>
       </c>
       <c r="AM87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN87" t="n">
         <v>5</v>
       </c>
-      <c r="AN87" t="n">
+      <c r="AO87" t="n">
         <v>20</v>
       </c>
-      <c r="AO87" t="n">
+      <c r="AP87" t="n">
         <v>43</v>
       </c>
-      <c r="AP87" t="n">
+      <c r="AQ87" t="n">
         <v>800</v>
       </c>
     </row>
@@ -11702,15 +11965,18 @@
         <v>28</v>
       </c>
       <c r="AM88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN88" t="n">
         <v>35</v>
       </c>
-      <c r="AN88" t="n">
+      <c r="AO88" t="n">
         <v>19</v>
       </c>
-      <c r="AO88" t="n">
+      <c r="AP88" t="n">
         <v>41</v>
       </c>
-      <c r="AP88" t="n">
+      <c r="AQ88" t="n">
         <v>800</v>
       </c>
     </row>
@@ -11830,15 +12096,18 @@
         <v>64</v>
       </c>
       <c r="AM89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN89" t="n">
         <v>30</v>
       </c>
-      <c r="AN89" t="n">
+      <c r="AO89" t="n">
         <v>16</v>
       </c>
-      <c r="AO89" t="n">
+      <c r="AP89" t="n">
         <v>40</v>
       </c>
-      <c r="AP89" t="n">
+      <c r="AQ89" t="n">
         <v>800</v>
       </c>
     </row>
@@ -11958,15 +12227,18 @@
         <v>64</v>
       </c>
       <c r="AM90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN90" t="n">
         <v>30</v>
       </c>
-      <c r="AN90" t="n">
+      <c r="AO90" t="n">
         <v>16</v>
       </c>
-      <c r="AO90" t="n">
+      <c r="AP90" t="n">
         <v>40</v>
       </c>
-      <c r="AP90" t="n">
+      <c r="AQ90" t="n">
         <v>800</v>
       </c>
     </row>
@@ -12086,15 +12358,18 @@
         <v>32</v>
       </c>
       <c r="AM91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN91" t="n">
         <v>13</v>
       </c>
-      <c r="AN91" t="n">
+      <c r="AO91" t="n">
         <v>21</v>
       </c>
-      <c r="AO91" t="n">
+      <c r="AP91" t="n">
         <v>40</v>
       </c>
-      <c r="AP91" t="n">
+      <c r="AQ91" t="n">
         <v>800</v>
       </c>
     </row>
@@ -12214,15 +12489,18 @@
         <v>32</v>
       </c>
       <c r="AM92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN92" t="n">
         <v>13</v>
       </c>
-      <c r="AN92" t="n">
+      <c r="AO92" t="n">
         <v>21</v>
       </c>
-      <c r="AO92" t="n">
+      <c r="AP92" t="n">
         <v>40</v>
       </c>
-      <c r="AP92" t="n">
+      <c r="AQ92" t="n">
         <v>800</v>
       </c>
     </row>
@@ -12342,15 +12620,18 @@
         <v>28</v>
       </c>
       <c r="AM93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN93" t="n">
         <v>34</v>
       </c>
-      <c r="AN93" t="n">
+      <c r="AO93" t="n">
         <v>13</v>
       </c>
-      <c r="AO93" t="n">
+      <c r="AP93" t="n">
         <v>44</v>
       </c>
-      <c r="AP93" t="n">
+      <c r="AQ93" t="n">
         <v>800</v>
       </c>
     </row>
@@ -12470,15 +12751,18 @@
         <v>28</v>
       </c>
       <c r="AM94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN94" t="n">
         <v>36</v>
       </c>
-      <c r="AN94" t="n">
+      <c r="AO94" t="n">
         <v>13</v>
       </c>
-      <c r="AO94" t="n">
+      <c r="AP94" t="n">
         <v>44</v>
       </c>
-      <c r="AP94" t="n">
+      <c r="AQ94" t="n">
         <v>800</v>
       </c>
     </row>
@@ -12598,15 +12882,18 @@
         <v>28</v>
       </c>
       <c r="AM95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN95" t="n">
         <v>35</v>
       </c>
-      <c r="AN95" t="n">
+      <c r="AO95" t="n">
         <v>13</v>
       </c>
-      <c r="AO95" t="n">
+      <c r="AP95" t="n">
         <v>45</v>
       </c>
-      <c r="AP95" t="n">
+      <c r="AQ95" t="n">
         <v>800</v>
       </c>
     </row>
@@ -12726,15 +13013,18 @@
         <v>28</v>
       </c>
       <c r="AM96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN96" t="n">
         <v>35</v>
       </c>
-      <c r="AN96" t="n">
+      <c r="AO96" t="n">
         <v>13</v>
       </c>
-      <c r="AO96" t="n">
+      <c r="AP96" t="n">
         <v>45</v>
       </c>
-      <c r="AP96" t="n">
+      <c r="AQ96" t="n">
         <v>800</v>
       </c>
     </row>
@@ -12854,15 +13144,18 @@
         <v>28</v>
       </c>
       <c r="AM97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN97" t="n">
         <v>35</v>
       </c>
-      <c r="AN97" t="n">
+      <c r="AO97" t="n">
         <v>13</v>
       </c>
-      <c r="AO97" t="n">
+      <c r="AP97" t="n">
         <v>45</v>
       </c>
-      <c r="AP97" t="n">
+      <c r="AQ97" t="n">
         <v>800</v>
       </c>
     </row>
@@ -12982,15 +13275,18 @@
         <v>18</v>
       </c>
       <c r="AM98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN98" t="n">
         <v>37</v>
       </c>
-      <c r="AN98" t="n">
+      <c r="AO98" t="n">
         <v>8</v>
       </c>
-      <c r="AO98" t="n">
+      <c r="AP98" t="n">
         <v>46</v>
       </c>
-      <c r="AP98" t="n">
+      <c r="AQ98" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -13110,15 +13406,18 @@
         <v>28</v>
       </c>
       <c r="AM99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN99" t="n">
         <v>36</v>
       </c>
-      <c r="AN99" t="n">
+      <c r="AO99" t="n">
         <v>14</v>
       </c>
-      <c r="AO99" t="n">
+      <c r="AP99" t="n">
         <v>47</v>
       </c>
-      <c r="AP99" t="n">
+      <c r="AQ99" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -13238,15 +13537,18 @@
         <v>28</v>
       </c>
       <c r="AM100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN100" t="n">
         <v>34</v>
       </c>
-      <c r="AN100" t="n">
+      <c r="AO100" t="n">
         <v>14</v>
       </c>
-      <c r="AO100" t="n">
+      <c r="AP100" t="n">
         <v>47</v>
       </c>
-      <c r="AP100" t="n">
+      <c r="AQ100" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -13366,15 +13668,18 @@
         <v>28</v>
       </c>
       <c r="AM101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN101" t="n">
         <v>35</v>
       </c>
-      <c r="AN101" t="n">
+      <c r="AO101" t="n">
         <v>13</v>
       </c>
-      <c r="AO101" t="n">
+      <c r="AP101" t="n">
         <v>48</v>
       </c>
-      <c r="AP101" t="n">
+      <c r="AQ101" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -13494,15 +13799,18 @@
         <v>28</v>
       </c>
       <c r="AM102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN102" t="n">
         <v>33</v>
       </c>
-      <c r="AN102" t="n">
+      <c r="AO102" t="n">
         <v>10</v>
       </c>
-      <c r="AO102" t="n">
+      <c r="AP102" t="n">
         <v>44</v>
       </c>
-      <c r="AP102" t="n">
+      <c r="AQ102" t="n">
         <v>800</v>
       </c>
     </row>
@@ -13622,15 +13930,18 @@
         <v>28</v>
       </c>
       <c r="AM103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN103" t="n">
         <v>34</v>
       </c>
-      <c r="AN103" t="n">
+      <c r="AO103" t="n">
         <v>10</v>
       </c>
-      <c r="AO103" t="n">
+      <c r="AP103" t="n">
         <v>44</v>
       </c>
-      <c r="AP103" t="n">
+      <c r="AQ103" t="n">
         <v>800</v>
       </c>
     </row>
@@ -13750,15 +14061,18 @@
         <v>28</v>
       </c>
       <c r="AM104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN104" t="n">
         <v>35</v>
       </c>
-      <c r="AN104" t="n">
+      <c r="AO104" t="n">
         <v>10</v>
       </c>
-      <c r="AO104" t="n">
+      <c r="AP104" t="n">
         <v>49</v>
       </c>
-      <c r="AP104" t="n">
+      <c r="AQ104" t="n">
         <v>800</v>
       </c>
     </row>
@@ -13878,15 +14192,18 @@
         <v>28</v>
       </c>
       <c r="AM105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN105" t="n">
         <v>35</v>
       </c>
-      <c r="AN105" t="n">
+      <c r="AO105" t="n">
         <v>10</v>
       </c>
-      <c r="AO105" t="n">
+      <c r="AP105" t="n">
         <v>42</v>
       </c>
-      <c r="AP105" t="n">
+      <c r="AQ105" t="n">
         <v>800</v>
       </c>
     </row>
@@ -14006,15 +14323,18 @@
         <v>28</v>
       </c>
       <c r="AM106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN106" t="n">
         <v>34</v>
       </c>
-      <c r="AN106" t="n">
+      <c r="AO106" t="n">
         <v>10</v>
       </c>
-      <c r="AO106" t="n">
+      <c r="AP106" t="n">
         <v>5</v>
       </c>
-      <c r="AP106" t="n">
+      <c r="AQ106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14134,15 +14454,18 @@
         <v>28</v>
       </c>
       <c r="AM107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN107" t="n">
         <v>34</v>
       </c>
-      <c r="AN107" t="n">
+      <c r="AO107" t="n">
         <v>10</v>
       </c>
-      <c r="AO107" t="n">
+      <c r="AP107" t="n">
         <v>5</v>
       </c>
-      <c r="AP107" t="n">
+      <c r="AQ107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14262,15 +14585,18 @@
         <v>28</v>
       </c>
       <c r="AM108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN108" t="n">
         <v>34</v>
       </c>
-      <c r="AN108" t="n">
+      <c r="AO108" t="n">
         <v>10</v>
       </c>
-      <c r="AO108" t="n">
+      <c r="AP108" t="n">
         <v>5</v>
       </c>
-      <c r="AP108" t="n">
+      <c r="AQ108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14390,15 +14716,18 @@
         <v>28</v>
       </c>
       <c r="AM109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN109" t="n">
         <v>34</v>
       </c>
-      <c r="AN109" t="n">
+      <c r="AO109" t="n">
         <v>10</v>
       </c>
-      <c r="AO109" t="n">
+      <c r="AP109" t="n">
         <v>5</v>
       </c>
-      <c r="AP109" t="n">
+      <c r="AQ109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14518,15 +14847,18 @@
         <v>28</v>
       </c>
       <c r="AM110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN110" t="n">
         <v>34</v>
       </c>
-      <c r="AN110" t="n">
+      <c r="AO110" t="n">
         <v>10</v>
       </c>
-      <c r="AO110" t="n">
+      <c r="AP110" t="n">
         <v>5</v>
       </c>
-      <c r="AP110" t="n">
+      <c r="AQ110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14646,15 +14978,18 @@
         <v>28</v>
       </c>
       <c r="AM111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN111" t="n">
         <v>34</v>
       </c>
-      <c r="AN111" t="n">
+      <c r="AO111" t="n">
         <v>10</v>
       </c>
-      <c r="AO111" t="n">
+      <c r="AP111" t="n">
         <v>5</v>
       </c>
-      <c r="AP111" t="n">
+      <c r="AQ111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14774,15 +15109,18 @@
         <v>28</v>
       </c>
       <c r="AM112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN112" t="n">
         <v>34</v>
       </c>
-      <c r="AN112" t="n">
+      <c r="AO112" t="n">
         <v>10</v>
       </c>
-      <c r="AO112" t="n">
+      <c r="AP112" t="n">
         <v>5</v>
       </c>
-      <c r="AP112" t="n">
+      <c r="AQ112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14902,15 +15240,18 @@
         <v>28</v>
       </c>
       <c r="AM113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN113" t="n">
         <v>34</v>
       </c>
-      <c r="AN113" t="n">
+      <c r="AO113" t="n">
         <v>10</v>
       </c>
-      <c r="AO113" t="n">
+      <c r="AP113" t="n">
         <v>5</v>
       </c>
-      <c r="AP113" t="n">
+      <c r="AQ113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15030,15 +15371,18 @@
         <v>28</v>
       </c>
       <c r="AM114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN114" t="n">
         <v>34</v>
       </c>
-      <c r="AN114" t="n">
+      <c r="AO114" t="n">
         <v>10</v>
       </c>
-      <c r="AO114" t="n">
+      <c r="AP114" t="n">
         <v>5</v>
       </c>
-      <c r="AP114" t="n">
+      <c r="AQ114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15158,15 +15502,18 @@
         <v>28</v>
       </c>
       <c r="AM115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN115" t="n">
         <v>34</v>
       </c>
-      <c r="AN115" t="n">
+      <c r="AO115" t="n">
         <v>10</v>
       </c>
-      <c r="AO115" t="n">
+      <c r="AP115" t="n">
         <v>5</v>
       </c>
-      <c r="AP115" t="n">
+      <c r="AQ115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15286,15 +15633,18 @@
         <v>28</v>
       </c>
       <c r="AM116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN116" t="n">
         <v>34</v>
       </c>
-      <c r="AN116" t="n">
+      <c r="AO116" t="n">
         <v>10</v>
       </c>
-      <c r="AO116" t="n">
+      <c r="AP116" t="n">
         <v>5</v>
       </c>
-      <c r="AP116" t="n">
+      <c r="AQ116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15414,15 +15764,18 @@
         <v>28</v>
       </c>
       <c r="AM117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN117" t="n">
         <v>33</v>
       </c>
-      <c r="AN117" t="n">
+      <c r="AO117" t="n">
         <v>10</v>
       </c>
-      <c r="AO117" t="n">
+      <c r="AP117" t="n">
         <v>5</v>
       </c>
-      <c r="AP117" t="n">
+      <c r="AQ117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15542,15 +15895,18 @@
         <v>28</v>
       </c>
       <c r="AM118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN118" t="n">
         <v>33</v>
       </c>
-      <c r="AN118" t="n">
+      <c r="AO118" t="n">
         <v>10</v>
       </c>
-      <c r="AO118" t="n">
+      <c r="AP118" t="n">
         <v>5</v>
       </c>
-      <c r="AP118" t="n">
+      <c r="AQ118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15670,15 +16026,18 @@
         <v>28</v>
       </c>
       <c r="AM119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN119" t="n">
         <v>33</v>
       </c>
-      <c r="AN119" t="n">
+      <c r="AO119" t="n">
         <v>10</v>
       </c>
-      <c r="AO119" t="n">
+      <c r="AP119" t="n">
         <v>5</v>
       </c>
-      <c r="AP119" t="n">
+      <c r="AQ119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15798,15 +16157,18 @@
         <v>28</v>
       </c>
       <c r="AM120" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN120" t="n">
         <v>33</v>
       </c>
-      <c r="AN120" t="n">
+      <c r="AO120" t="n">
         <v>10</v>
       </c>
-      <c r="AO120" t="n">
+      <c r="AP120" t="n">
         <v>5</v>
       </c>
-      <c r="AP120" t="n">
+      <c r="AQ120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15926,15 +16288,18 @@
         <v>28</v>
       </c>
       <c r="AM121" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN121" t="n">
         <v>33</v>
       </c>
-      <c r="AN121" t="n">
+      <c r="AO121" t="n">
         <v>10</v>
       </c>
-      <c r="AO121" t="n">
+      <c r="AP121" t="n">
         <v>5</v>
       </c>
-      <c r="AP121" t="n">
+      <c r="AQ121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16054,15 +16419,18 @@
         <v>28</v>
       </c>
       <c r="AM122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN122" t="n">
         <v>33</v>
       </c>
-      <c r="AN122" t="n">
+      <c r="AO122" t="n">
         <v>10</v>
       </c>
-      <c r="AO122" t="n">
+      <c r="AP122" t="n">
         <v>5</v>
       </c>
-      <c r="AP122" t="n">
+      <c r="AQ122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16182,15 +16550,18 @@
         <v>28</v>
       </c>
       <c r="AM123" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN123" t="n">
         <v>33</v>
       </c>
-      <c r="AN123" t="n">
+      <c r="AO123" t="n">
         <v>10</v>
       </c>
-      <c r="AO123" t="n">
+      <c r="AP123" t="n">
         <v>5</v>
       </c>
-      <c r="AP123" t="n">
+      <c r="AQ123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16310,15 +16681,18 @@
         <v>28</v>
       </c>
       <c r="AM124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN124" t="n">
         <v>33</v>
       </c>
-      <c r="AN124" t="n">
+      <c r="AO124" t="n">
         <v>10</v>
       </c>
-      <c r="AO124" t="n">
+      <c r="AP124" t="n">
         <v>5</v>
       </c>
-      <c r="AP124" t="n">
+      <c r="AQ124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16438,15 +16812,18 @@
         <v>28</v>
       </c>
       <c r="AM125" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN125" t="n">
         <v>35</v>
       </c>
-      <c r="AN125" t="n">
+      <c r="AO125" t="n">
         <v>10</v>
       </c>
-      <c r="AO125" t="n">
+      <c r="AP125" t="n">
         <v>4</v>
       </c>
-      <c r="AP125" t="n">
+      <c r="AQ125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16566,15 +16943,18 @@
         <v>28</v>
       </c>
       <c r="AM126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN126" t="n">
         <v>35</v>
       </c>
-      <c r="AN126" t="n">
+      <c r="AO126" t="n">
         <v>10</v>
       </c>
-      <c r="AO126" t="n">
+      <c r="AP126" t="n">
         <v>4</v>
       </c>
-      <c r="AP126" t="n">
+      <c r="AQ126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16694,15 +17074,18 @@
         <v>28</v>
       </c>
       <c r="AM127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN127" t="n">
         <v>35</v>
       </c>
-      <c r="AN127" t="n">
+      <c r="AO127" t="n">
         <v>10</v>
       </c>
-      <c r="AO127" t="n">
+      <c r="AP127" t="n">
         <v>4</v>
       </c>
-      <c r="AP127" t="n">
+      <c r="AQ127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16822,15 +17205,18 @@
         <v>28</v>
       </c>
       <c r="AM128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN128" t="n">
         <v>35</v>
       </c>
-      <c r="AN128" t="n">
+      <c r="AO128" t="n">
         <v>10</v>
       </c>
-      <c r="AO128" t="n">
+      <c r="AP128" t="n">
         <v>4</v>
       </c>
-      <c r="AP128" t="n">
+      <c r="AQ128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16950,15 +17336,18 @@
         <v>28</v>
       </c>
       <c r="AM129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN129" t="n">
         <v>35</v>
       </c>
-      <c r="AN129" t="n">
+      <c r="AO129" t="n">
         <v>10</v>
       </c>
-      <c r="AO129" t="n">
+      <c r="AP129" t="n">
         <v>4</v>
       </c>
-      <c r="AP129" t="n">
+      <c r="AQ129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17078,15 +17467,18 @@
         <v>28</v>
       </c>
       <c r="AM130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN130" t="n">
         <v>35</v>
       </c>
-      <c r="AN130" t="n">
+      <c r="AO130" t="n">
         <v>10</v>
       </c>
-      <c r="AO130" t="n">
+      <c r="AP130" t="n">
         <v>4</v>
       </c>
-      <c r="AP130" t="n">
+      <c r="AQ130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17206,15 +17598,18 @@
         <v>28</v>
       </c>
       <c r="AM131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN131" t="n">
         <v>35</v>
       </c>
-      <c r="AN131" t="n">
+      <c r="AO131" t="n">
         <v>10</v>
       </c>
-      <c r="AO131" t="n">
+      <c r="AP131" t="n">
         <v>4</v>
       </c>
-      <c r="AP131" t="n">
+      <c r="AQ131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17334,15 +17729,18 @@
         <v>28</v>
       </c>
       <c r="AM132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN132" t="n">
         <v>35</v>
       </c>
-      <c r="AN132" t="n">
+      <c r="AO132" t="n">
         <v>10</v>
       </c>
-      <c r="AO132" t="n">
+      <c r="AP132" t="n">
         <v>4</v>
       </c>
-      <c r="AP132" t="n">
+      <c r="AQ132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17462,15 +17860,18 @@
         <v>28</v>
       </c>
       <c r="AM133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN133" t="n">
         <v>34</v>
       </c>
-      <c r="AN133" t="n">
+      <c r="AO133" t="n">
         <v>14</v>
       </c>
-      <c r="AO133" t="n">
+      <c r="AP133" t="n">
         <v>5</v>
       </c>
-      <c r="AP133" t="n">
+      <c r="AQ133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17590,15 +17991,18 @@
         <v>28</v>
       </c>
       <c r="AM134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN134" t="n">
         <v>34</v>
       </c>
-      <c r="AN134" t="n">
+      <c r="AO134" t="n">
         <v>14</v>
       </c>
-      <c r="AO134" t="n">
+      <c r="AP134" t="n">
         <v>5</v>
       </c>
-      <c r="AP134" t="n">
+      <c r="AQ134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17718,15 +18122,18 @@
         <v>28</v>
       </c>
       <c r="AM135" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN135" t="n">
         <v>34</v>
       </c>
-      <c r="AN135" t="n">
+      <c r="AO135" t="n">
         <v>14</v>
       </c>
-      <c r="AO135" t="n">
+      <c r="AP135" t="n">
         <v>5</v>
       </c>
-      <c r="AP135" t="n">
+      <c r="AQ135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17846,15 +18253,18 @@
         <v>28</v>
       </c>
       <c r="AM136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN136" t="n">
         <v>34</v>
       </c>
-      <c r="AN136" t="n">
+      <c r="AO136" t="n">
         <v>14</v>
       </c>
-      <c r="AO136" t="n">
+      <c r="AP136" t="n">
         <v>5</v>
       </c>
-      <c r="AP136" t="n">
+      <c r="AQ136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17974,15 +18384,18 @@
         <v>28</v>
       </c>
       <c r="AM137" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN137" t="n">
         <v>34</v>
       </c>
-      <c r="AN137" t="n">
+      <c r="AO137" t="n">
         <v>14</v>
       </c>
-      <c r="AO137" t="n">
+      <c r="AP137" t="n">
         <v>5</v>
       </c>
-      <c r="AP137" t="n">
+      <c r="AQ137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18102,15 +18515,18 @@
         <v>28</v>
       </c>
       <c r="AM138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN138" t="n">
         <v>33</v>
       </c>
-      <c r="AN138" t="n">
+      <c r="AO138" t="n">
         <v>14</v>
       </c>
-      <c r="AO138" t="n">
+      <c r="AP138" t="n">
         <v>5</v>
       </c>
-      <c r="AP138" t="n">
+      <c r="AQ138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18230,15 +18646,18 @@
         <v>28</v>
       </c>
       <c r="AM139" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN139" t="n">
         <v>33</v>
       </c>
-      <c r="AN139" t="n">
+      <c r="AO139" t="n">
         <v>14</v>
       </c>
-      <c r="AO139" t="n">
+      <c r="AP139" t="n">
         <v>5</v>
       </c>
-      <c r="AP139" t="n">
+      <c r="AQ139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18358,15 +18777,18 @@
         <v>28</v>
       </c>
       <c r="AM140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN140" t="n">
         <v>33</v>
       </c>
-      <c r="AN140" t="n">
+      <c r="AO140" t="n">
         <v>14</v>
       </c>
-      <c r="AO140" t="n">
+      <c r="AP140" t="n">
         <v>5</v>
       </c>
-      <c r="AP140" t="n">
+      <c r="AQ140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18486,15 +18908,18 @@
         <v>28</v>
       </c>
       <c r="AM141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN141" t="n">
         <v>33</v>
       </c>
-      <c r="AN141" t="n">
+      <c r="AO141" t="n">
         <v>14</v>
       </c>
-      <c r="AO141" t="n">
+      <c r="AP141" t="n">
         <v>5</v>
       </c>
-      <c r="AP141" t="n">
+      <c r="AQ141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18614,15 +19039,18 @@
         <v>28</v>
       </c>
       <c r="AM142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN142" t="n">
         <v>33</v>
       </c>
-      <c r="AN142" t="n">
+      <c r="AO142" t="n">
         <v>14</v>
       </c>
-      <c r="AO142" t="n">
+      <c r="AP142" t="n">
         <v>5</v>
       </c>
-      <c r="AP142" t="n">
+      <c r="AQ142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18742,15 +19170,18 @@
         <v>28</v>
       </c>
       <c r="AM143" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN143" t="n">
         <v>35</v>
       </c>
-      <c r="AN143" t="n">
+      <c r="AO143" t="n">
         <v>14</v>
       </c>
-      <c r="AO143" t="n">
+      <c r="AP143" t="n">
         <v>4</v>
       </c>
-      <c r="AP143" t="n">
+      <c r="AQ143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18870,15 +19301,18 @@
         <v>28</v>
       </c>
       <c r="AM144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN144" t="n">
         <v>35</v>
       </c>
-      <c r="AN144" t="n">
+      <c r="AO144" t="n">
         <v>14</v>
       </c>
-      <c r="AO144" t="n">
+      <c r="AP144" t="n">
         <v>4</v>
       </c>
-      <c r="AP144" t="n">
+      <c r="AQ144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18998,15 +19432,18 @@
         <v>28</v>
       </c>
       <c r="AM145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN145" t="n">
         <v>35</v>
       </c>
-      <c r="AN145" t="n">
+      <c r="AO145" t="n">
         <v>14</v>
       </c>
-      <c r="AO145" t="n">
+      <c r="AP145" t="n">
         <v>4</v>
       </c>
-      <c r="AP145" t="n">
+      <c r="AQ145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19126,15 +19563,18 @@
         <v>28</v>
       </c>
       <c r="AM146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN146" t="n">
         <v>35</v>
       </c>
-      <c r="AN146" t="n">
+      <c r="AO146" t="n">
         <v>14</v>
       </c>
-      <c r="AO146" t="n">
+      <c r="AP146" t="n">
         <v>4</v>
       </c>
-      <c r="AP146" t="n">
+      <c r="AQ146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19254,15 +19694,18 @@
         <v>28</v>
       </c>
       <c r="AM147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN147" t="n">
         <v>35</v>
       </c>
-      <c r="AN147" t="n">
+      <c r="AO147" t="n">
         <v>14</v>
       </c>
-      <c r="AO147" t="n">
+      <c r="AP147" t="n">
         <v>4</v>
       </c>
-      <c r="AP147" t="n">
+      <c r="AQ147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19382,15 +19825,18 @@
         <v>18</v>
       </c>
       <c r="AM148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN148" t="n">
         <v>37</v>
       </c>
-      <c r="AN148" t="n">
+      <c r="AO148" t="n">
         <v>22</v>
       </c>
-      <c r="AO148" t="n">
+      <c r="AP148" t="n">
         <v>50</v>
       </c>
-      <c r="AP148" t="n">
+      <c r="AQ148" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -19510,15 +19956,18 @@
         <v>28</v>
       </c>
       <c r="AM149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN149" t="n">
         <v>38</v>
       </c>
-      <c r="AN149" t="n">
+      <c r="AO149" t="n">
         <v>3</v>
       </c>
-      <c r="AO149" t="n">
+      <c r="AP149" t="n">
         <v>51</v>
       </c>
-      <c r="AP149" t="n">
+      <c r="AQ149" t="n">
         <v>550</v>
       </c>
     </row>
@@ -19638,15 +20087,18 @@
         <v>28</v>
       </c>
       <c r="AM150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN150" t="n">
         <v>38</v>
       </c>
-      <c r="AN150" t="n">
+      <c r="AO150" t="n">
         <v>3</v>
       </c>
-      <c r="AO150" t="n">
+      <c r="AP150" t="n">
         <v>51</v>
       </c>
-      <c r="AP150" t="n">
+      <c r="AQ150" t="n">
         <v>550</v>
       </c>
     </row>
@@ -19766,15 +20218,18 @@
         <v>28</v>
       </c>
       <c r="AM151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN151" t="n">
         <v>38</v>
       </c>
-      <c r="AN151" t="n">
+      <c r="AO151" t="n">
         <v>3</v>
       </c>
-      <c r="AO151" t="n">
+      <c r="AP151" t="n">
         <v>51</v>
       </c>
-      <c r="AP151" t="n">
+      <c r="AQ151" t="n">
         <v>550</v>
       </c>
     </row>
@@ -19894,15 +20349,18 @@
         <v>28</v>
       </c>
       <c r="AM152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN152" t="n">
         <v>38</v>
       </c>
-      <c r="AN152" t="n">
+      <c r="AO152" t="n">
         <v>3</v>
       </c>
-      <c r="AO152" t="n">
+      <c r="AP152" t="n">
         <v>51</v>
       </c>
-      <c r="AP152" t="n">
+      <c r="AQ152" t="n">
         <v>550</v>
       </c>
     </row>
@@ -20022,15 +20480,18 @@
         <v>28</v>
       </c>
       <c r="AM153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN153" t="n">
         <v>3</v>
       </c>
       <c r="AO153" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP153" t="n">
         <v>52</v>
       </c>
-      <c r="AP153" t="n">
+      <c r="AQ153" t="n">
         <v>550</v>
       </c>
     </row>
@@ -20150,15 +20611,18 @@
         <v>28</v>
       </c>
       <c r="AM154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN154" t="n">
         <v>39</v>
       </c>
-      <c r="AN154" t="n">
+      <c r="AO154" t="n">
         <v>3</v>
       </c>
-      <c r="AO154" t="n">
+      <c r="AP154" t="n">
         <v>52</v>
       </c>
-      <c r="AP154" t="n">
+      <c r="AQ154" t="n">
         <v>550</v>
       </c>
     </row>
@@ -20278,15 +20742,18 @@
         <v>28</v>
       </c>
       <c r="AM155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN155" t="n">
         <v>3</v>
       </c>
       <c r="AO155" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP155" t="n">
         <v>52</v>
       </c>
-      <c r="AP155" t="n">
+      <c r="AQ155" t="n">
         <v>550</v>
       </c>
     </row>
@@ -20406,15 +20873,18 @@
         <v>28</v>
       </c>
       <c r="AM156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN156" t="n">
         <v>38</v>
       </c>
-      <c r="AN156" t="n">
+      <c r="AO156" t="n">
         <v>3</v>
       </c>
-      <c r="AO156" t="n">
+      <c r="AP156" t="n">
         <v>53</v>
       </c>
-      <c r="AP156" t="n">
+      <c r="AQ156" t="n">
         <v>900</v>
       </c>
     </row>
@@ -20534,15 +21004,18 @@
         <v>28</v>
       </c>
       <c r="AM157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN157" t="n">
         <v>38</v>
       </c>
-      <c r="AN157" t="n">
+      <c r="AO157" t="n">
         <v>3</v>
       </c>
-      <c r="AO157" t="n">
+      <c r="AP157" t="n">
         <v>53</v>
       </c>
-      <c r="AP157" t="n">
+      <c r="AQ157" t="n">
         <v>900</v>
       </c>
     </row>
@@ -20662,15 +21135,18 @@
         <v>20</v>
       </c>
       <c r="AM158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN158" t="n">
         <v>40</v>
       </c>
-      <c r="AN158" t="n">
+      <c r="AO158" t="n">
         <v>5</v>
       </c>
-      <c r="AO158" t="n">
+      <c r="AP158" t="n">
         <v>54</v>
       </c>
-      <c r="AP158" t="n">
+      <c r="AQ158" t="n">
         <v>750</v>
       </c>
     </row>
@@ -20790,15 +21266,18 @@
         <v>18</v>
       </c>
       <c r="AM159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN159" t="n">
         <v>23</v>
       </c>
-      <c r="AN159" t="n">
+      <c r="AO159" t="n">
         <v>5</v>
       </c>
-      <c r="AO159" t="n">
+      <c r="AP159" t="n">
         <v>54</v>
       </c>
-      <c r="AP159" t="n">
+      <c r="AQ159" t="n">
         <v>750</v>
       </c>
     </row>
@@ -20918,15 +21397,18 @@
         <v>20</v>
       </c>
       <c r="AM160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN160" t="n">
         <v>40</v>
       </c>
-      <c r="AN160" t="n">
+      <c r="AO160" t="n">
         <v>5</v>
       </c>
-      <c r="AO160" t="n">
+      <c r="AP160" t="n">
         <v>4</v>
       </c>
-      <c r="AP160" t="n">
+      <c r="AQ160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21046,15 +21528,18 @@
         <v>16</v>
       </c>
       <c r="AM161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN161" t="n">
         <v>41</v>
       </c>
-      <c r="AN161" t="n">
+      <c r="AO161" t="n">
         <v>23</v>
       </c>
-      <c r="AO161" t="n">
+      <c r="AP161" t="n">
         <v>4</v>
       </c>
-      <c r="AP161" t="n">
+      <c r="AQ161" t="n">
         <v>3000</v>
       </c>
     </row>
@@ -21174,15 +21659,18 @@
         <v>16</v>
       </c>
       <c r="AM162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN162" t="n">
         <v>41</v>
       </c>
-      <c r="AN162" t="n">
+      <c r="AO162" t="n">
         <v>23</v>
       </c>
-      <c r="AO162" t="n">
+      <c r="AP162" t="n">
         <v>4</v>
       </c>
-      <c r="AP162" t="n">
+      <c r="AQ162" t="n">
         <v>3000</v>
       </c>
     </row>
@@ -21302,15 +21790,18 @@
         <v>22</v>
       </c>
       <c r="AM163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN163" t="n">
         <v>24</v>
       </c>
-      <c r="AN163" t="n">
+      <c r="AO163" t="n">
         <v>5</v>
       </c>
-      <c r="AO163" t="n">
+      <c r="AP163" t="n">
         <v>4</v>
       </c>
-      <c r="AP163" t="n">
+      <c r="AQ163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21430,15 +21921,18 @@
         <v>28</v>
       </c>
       <c r="AM164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN164" t="n">
         <v>42</v>
       </c>
-      <c r="AN164" t="n">
+      <c r="AO164" t="n">
         <v>3</v>
       </c>
-      <c r="AO164" t="n">
+      <c r="AP164" t="n">
         <v>55</v>
       </c>
-      <c r="AP164" t="n">
+      <c r="AQ164" t="n">
         <v>800</v>
       </c>
     </row>
@@ -21558,15 +22052,18 @@
         <v>28</v>
       </c>
       <c r="AM165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN165" t="n">
         <v>36</v>
       </c>
-      <c r="AN165" t="n">
+      <c r="AO165" t="n">
         <v>3</v>
       </c>
-      <c r="AO165" t="n">
+      <c r="AP165" t="n">
         <v>56</v>
       </c>
-      <c r="AP165" t="n">
+      <c r="AQ165" t="n">
         <v>550</v>
       </c>
     </row>
@@ -21686,15 +22183,18 @@
         <v>28</v>
       </c>
       <c r="AM166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN166" t="n">
         <v>25</v>
       </c>
-      <c r="AN166" t="n">
+      <c r="AO166" t="n">
         <v>3</v>
       </c>
-      <c r="AO166" t="n">
+      <c r="AP166" t="n">
         <v>55</v>
       </c>
-      <c r="AP166" t="n">
+      <c r="AQ166" t="n">
         <v>800</v>
       </c>
     </row>
@@ -21814,15 +22314,18 @@
         <v>28</v>
       </c>
       <c r="AM167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN167" t="n">
         <v>3</v>
       </c>
       <c r="AO167" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP167" t="n">
         <v>55</v>
       </c>
-      <c r="AP167" t="n">
+      <c r="AQ167" t="n">
         <v>800</v>
       </c>
     </row>
@@ -21942,15 +22445,18 @@
         <v>28</v>
       </c>
       <c r="AM168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN168" t="n">
         <v>39</v>
       </c>
-      <c r="AN168" t="n">
+      <c r="AO168" t="n">
         <v>3</v>
       </c>
-      <c r="AO168" t="n">
+      <c r="AP168" t="n">
         <v>55</v>
       </c>
-      <c r="AP168" t="n">
+      <c r="AQ168" t="n">
         <v>800</v>
       </c>
     </row>
@@ -22070,15 +22576,18 @@
         <v>28</v>
       </c>
       <c r="AM169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN169" t="n">
         <v>39</v>
       </c>
-      <c r="AN169" t="n">
+      <c r="AO169" t="n">
         <v>9</v>
       </c>
-      <c r="AO169" t="n">
+      <c r="AP169" t="n">
         <v>57</v>
       </c>
-      <c r="AP169" t="n">
+      <c r="AQ169" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -22198,15 +22707,18 @@
         <v>22</v>
       </c>
       <c r="AM170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN170" t="n">
         <v>24</v>
       </c>
-      <c r="AN170" t="n">
+      <c r="AO170" t="n">
         <v>1</v>
       </c>
-      <c r="AO170" t="n">
+      <c r="AP170" t="n">
         <v>55</v>
       </c>
-      <c r="AP170" t="n">
+      <c r="AQ170" t="n">
         <v>800</v>
       </c>
     </row>
@@ -22326,15 +22838,18 @@
         <v>64</v>
       </c>
       <c r="AM171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN171" t="n">
         <v>1</v>
       </c>
-      <c r="AN171" t="n">
+      <c r="AO171" t="n">
         <v>17</v>
       </c>
-      <c r="AO171" t="n">
+      <c r="AP171" t="n">
         <v>58</v>
       </c>
-      <c r="AP171" t="n">
+      <c r="AQ171" t="n">
         <v>750</v>
       </c>
     </row>
@@ -22454,15 +22969,18 @@
         <v>64</v>
       </c>
       <c r="AM172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN172" t="n">
         <v>1</v>
       </c>
-      <c r="AN172" t="n">
+      <c r="AO172" t="n">
         <v>17</v>
       </c>
-      <c r="AO172" t="n">
+      <c r="AP172" t="n">
         <v>58</v>
       </c>
-      <c r="AP172" t="n">
+      <c r="AQ172" t="n">
         <v>750</v>
       </c>
     </row>
@@ -22582,15 +23100,18 @@
         <v>64</v>
       </c>
       <c r="AM173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN173" t="n">
         <v>17</v>
       </c>
-      <c r="AN173" t="n">
+      <c r="AO173" t="n">
         <v>16</v>
       </c>
-      <c r="AO173" t="n">
+      <c r="AP173" t="n">
         <v>59</v>
       </c>
-      <c r="AP173" t="n">
+      <c r="AQ173" t="n">
         <v>750</v>
       </c>
     </row>
@@ -22710,15 +23231,18 @@
         <v>64</v>
       </c>
       <c r="AM174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN174" t="n">
         <v>17</v>
       </c>
-      <c r="AN174" t="n">
+      <c r="AO174" t="n">
         <v>16</v>
       </c>
-      <c r="AO174" t="n">
+      <c r="AP174" t="n">
         <v>59</v>
       </c>
-      <c r="AP174" t="n">
+      <c r="AQ174" t="n">
         <v>750</v>
       </c>
     </row>
@@ -22838,15 +23362,18 @@
         <v>64</v>
       </c>
       <c r="AM175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN175" t="n">
         <v>17</v>
       </c>
-      <c r="AN175" t="n">
+      <c r="AO175" t="n">
         <v>16</v>
       </c>
-      <c r="AO175" t="n">
+      <c r="AP175" t="n">
         <v>60</v>
       </c>
-      <c r="AP175" t="n">
+      <c r="AQ175" t="n">
         <v>1100</v>
       </c>
     </row>
@@ -22966,15 +23493,18 @@
         <v>64</v>
       </c>
       <c r="AM176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN176" t="n">
         <v>17</v>
       </c>
-      <c r="AN176" t="n">
+      <c r="AO176" t="n">
         <v>16</v>
       </c>
-      <c r="AO176" t="n">
+      <c r="AP176" t="n">
         <v>60</v>
       </c>
-      <c r="AP176" t="n">
+      <c r="AQ176" t="n">
         <v>1100</v>
       </c>
     </row>
@@ -23094,15 +23624,18 @@
         <v>64</v>
       </c>
       <c r="AM177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN177" t="n">
         <v>1</v>
       </c>
-      <c r="AN177" t="n">
+      <c r="AO177" t="n">
         <v>17</v>
       </c>
-      <c r="AO177" t="n">
+      <c r="AP177" t="n">
         <v>58</v>
       </c>
-      <c r="AP177" t="n">
+      <c r="AQ177" t="n">
         <v>750</v>
       </c>
     </row>
@@ -23222,15 +23755,18 @@
         <v>64</v>
       </c>
       <c r="AM178" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN178" t="n">
         <v>1</v>
       </c>
-      <c r="AN178" t="n">
+      <c r="AO178" t="n">
         <v>17</v>
       </c>
-      <c r="AO178" t="n">
+      <c r="AP178" t="n">
         <v>58</v>
       </c>
-      <c r="AP178" t="n">
+      <c r="AQ178" t="n">
         <v>750</v>
       </c>
     </row>
@@ -23350,15 +23886,18 @@
         <v>64</v>
       </c>
       <c r="AM179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN179" t="n">
         <v>17</v>
       </c>
-      <c r="AN179" t="n">
+      <c r="AO179" t="n">
         <v>16</v>
       </c>
-      <c r="AO179" t="n">
+      <c r="AP179" t="n">
         <v>59</v>
       </c>
-      <c r="AP179" t="n">
+      <c r="AQ179" t="n">
         <v>750</v>
       </c>
     </row>
@@ -23478,15 +24017,18 @@
         <v>64</v>
       </c>
       <c r="AM180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN180" t="n">
         <v>17</v>
       </c>
-      <c r="AN180" t="n">
+      <c r="AO180" t="n">
         <v>16</v>
       </c>
-      <c r="AO180" t="n">
+      <c r="AP180" t="n">
         <v>59</v>
       </c>
-      <c r="AP180" t="n">
+      <c r="AQ180" t="n">
         <v>750</v>
       </c>
     </row>
@@ -23606,15 +24148,18 @@
         <v>64</v>
       </c>
       <c r="AM181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN181" t="n">
         <v>17</v>
       </c>
-      <c r="AN181" t="n">
+      <c r="AO181" t="n">
         <v>16</v>
       </c>
-      <c r="AO181" t="n">
+      <c r="AP181" t="n">
         <v>60</v>
       </c>
-      <c r="AP181" t="n">
+      <c r="AQ181" t="n">
         <v>1100</v>
       </c>
     </row>
@@ -23734,15 +24279,18 @@
         <v>64</v>
       </c>
       <c r="AM182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN182" t="n">
         <v>17</v>
       </c>
-      <c r="AN182" t="n">
+      <c r="AO182" t="n">
         <v>16</v>
       </c>
-      <c r="AO182" t="n">
+      <c r="AP182" t="n">
         <v>60</v>
       </c>
-      <c r="AP182" t="n">
+      <c r="AQ182" t="n">
         <v>1100</v>
       </c>
     </row>
@@ -23862,15 +24410,18 @@
         <v>28</v>
       </c>
       <c r="AM183" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN183" t="n">
         <v>25</v>
       </c>
-      <c r="AN183" t="n">
+      <c r="AO183" t="n">
         <v>3</v>
       </c>
-      <c r="AO183" t="n">
+      <c r="AP183" t="n">
         <v>4</v>
       </c>
-      <c r="AP183" t="n">
+      <c r="AQ183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23990,15 +24541,18 @@
         <v>28</v>
       </c>
       <c r="AM184" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN184" t="n">
         <v>39</v>
       </c>
-      <c r="AN184" t="n">
+      <c r="AO184" t="n">
         <v>3</v>
       </c>
-      <c r="AO184" t="n">
+      <c r="AP184" t="n">
         <v>4</v>
       </c>
-      <c r="AP184" t="n">
+      <c r="AQ184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24118,15 +24672,18 @@
         <v>28</v>
       </c>
       <c r="AM185" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN185" t="n">
         <v>39</v>
       </c>
-      <c r="AN185" t="n">
+      <c r="AO185" t="n">
         <v>3</v>
       </c>
-      <c r="AO185" t="n">
+      <c r="AP185" t="n">
         <v>4</v>
       </c>
-      <c r="AP185" t="n">
+      <c r="AQ185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24246,15 +24803,18 @@
         <v>28</v>
       </c>
       <c r="AM186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN186" t="n">
         <v>39</v>
       </c>
-      <c r="AN186" t="n">
+      <c r="AO186" t="n">
         <v>3</v>
       </c>
-      <c r="AO186" t="n">
+      <c r="AP186" t="n">
         <v>4</v>
       </c>
-      <c r="AP186" t="n">
+      <c r="AQ186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24374,15 +24934,18 @@
         <v>28</v>
       </c>
       <c r="AM187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN187" t="n">
         <v>25</v>
       </c>
-      <c r="AN187" t="n">
+      <c r="AO187" t="n">
         <v>9</v>
       </c>
-      <c r="AO187" t="n">
+      <c r="AP187" t="n">
         <v>4</v>
       </c>
-      <c r="AP187" t="n">
+      <c r="AQ187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24502,15 +25065,18 @@
         <v>28</v>
       </c>
       <c r="AM188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN188" t="n">
         <v>39</v>
       </c>
-      <c r="AN188" t="n">
+      <c r="AO188" t="n">
         <v>9</v>
       </c>
-      <c r="AO188" t="n">
+      <c r="AP188" t="n">
         <v>4</v>
       </c>
-      <c r="AP188" t="n">
+      <c r="AQ188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24630,15 +25196,18 @@
         <v>6</v>
       </c>
       <c r="AM189" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN189" t="n">
         <v>8</v>
       </c>
-      <c r="AN189" t="n">
+      <c r="AO189" t="n">
         <v>7</v>
       </c>
-      <c r="AO189" t="n">
+      <c r="AP189" t="n">
         <v>61</v>
       </c>
-      <c r="AP189" t="n">
+      <c r="AQ189" t="n">
         <v>300</v>
       </c>
     </row>
@@ -24758,15 +25327,18 @@
         <v>28</v>
       </c>
       <c r="AM190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN190" t="n">
         <v>39</v>
       </c>
-      <c r="AN190" t="n">
+      <c r="AO190" t="n">
         <v>3</v>
       </c>
-      <c r="AO190" t="n">
+      <c r="AP190" t="n">
         <v>62</v>
       </c>
-      <c r="AP190" t="n">
+      <c r="AQ190" t="n">
         <v>750</v>
       </c>
     </row>
@@ -24886,15 +25458,18 @@
         <v>28</v>
       </c>
       <c r="AM191" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN191" t="n">
         <v>39</v>
       </c>
-      <c r="AN191" t="n">
+      <c r="AO191" t="n">
         <v>3</v>
       </c>
-      <c r="AO191" t="n">
+      <c r="AP191" t="n">
         <v>62</v>
       </c>
-      <c r="AP191" t="n">
+      <c r="AQ191" t="n">
         <v>750</v>
       </c>
     </row>
@@ -25014,15 +25589,18 @@
         <v>28</v>
       </c>
       <c r="AM192" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN192" t="n">
         <v>42</v>
       </c>
-      <c r="AN192" t="n">
+      <c r="AO192" t="n">
         <v>24</v>
       </c>
-      <c r="AO192" t="n">
+      <c r="AP192" t="n">
         <v>62</v>
       </c>
-      <c r="AP192" t="n">
+      <c r="AQ192" t="n">
         <v>750</v>
       </c>
     </row>
@@ -25142,15 +25720,18 @@
         <v>28</v>
       </c>
       <c r="AM193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN193" t="n">
         <v>42</v>
       </c>
-      <c r="AN193" t="n">
+      <c r="AO193" t="n">
         <v>10</v>
       </c>
-      <c r="AO193" t="n">
+      <c r="AP193" t="n">
         <v>62</v>
       </c>
-      <c r="AP193" t="n">
+      <c r="AQ193" t="n">
         <v>750</v>
       </c>
     </row>
@@ -25270,15 +25851,18 @@
         <v>28</v>
       </c>
       <c r="AM194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN194" t="n">
         <v>43</v>
       </c>
-      <c r="AN194" t="n">
+      <c r="AO194" t="n">
         <v>24</v>
       </c>
-      <c r="AO194" t="n">
+      <c r="AP194" t="n">
         <v>62</v>
       </c>
-      <c r="AP194" t="n">
+      <c r="AQ194" t="n">
         <v>750</v>
       </c>
     </row>
@@ -25398,15 +25982,18 @@
         <v>28</v>
       </c>
       <c r="AM195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN195" t="n">
         <v>25</v>
       </c>
-      <c r="AN195" t="n">
+      <c r="AO195" t="n">
         <v>14</v>
       </c>
-      <c r="AO195" t="n">
+      <c r="AP195" t="n">
         <v>63</v>
       </c>
-      <c r="AP195" t="n">
+      <c r="AQ195" t="n">
         <v>750</v>
       </c>
     </row>
@@ -25526,15 +26113,18 @@
         <v>28</v>
       </c>
       <c r="AM196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN196" t="n">
         <v>42</v>
       </c>
-      <c r="AN196" t="n">
+      <c r="AO196" t="n">
         <v>14</v>
       </c>
-      <c r="AO196" t="n">
+      <c r="AP196" t="n">
         <v>64</v>
       </c>
-      <c r="AP196" t="n">
+      <c r="AQ196" t="n">
         <v>1100</v>
       </c>
     </row>
@@ -25654,15 +26244,18 @@
         <v>28</v>
       </c>
       <c r="AM197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN197" t="n">
         <v>44</v>
       </c>
-      <c r="AN197" t="n">
+      <c r="AO197" t="n">
         <v>14</v>
       </c>
-      <c r="AO197" t="n">
+      <c r="AP197" t="n">
         <v>65</v>
       </c>
-      <c r="AP197" t="n">
+      <c r="AQ197" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -25782,15 +26375,18 @@
         <v>28</v>
       </c>
       <c r="AM198" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AN198" t="n">
         <v>25</v>
       </c>
       <c r="AO198" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP198" t="n">
         <v>64</v>
       </c>
-      <c r="AP198" t="n">
+      <c r="AQ198" t="n">
         <v>1100</v>
       </c>
     </row>
@@ -25910,15 +26506,18 @@
         <v>28</v>
       </c>
       <c r="AM199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN199" t="n">
         <v>39</v>
       </c>
-      <c r="AN199" t="n">
+      <c r="AO199" t="n">
         <v>25</v>
       </c>
-      <c r="AO199" t="n">
+      <c r="AP199" t="n">
         <v>66</v>
       </c>
-      <c r="AP199" t="n">
+      <c r="AQ199" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -26038,15 +26637,18 @@
         <v>28</v>
       </c>
       <c r="AM200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN200" t="n">
         <v>35</v>
       </c>
-      <c r="AN200" t="n">
+      <c r="AO200" t="n">
         <v>10</v>
       </c>
-      <c r="AO200" t="n">
+      <c r="AP200" t="n">
         <v>4</v>
       </c>
-      <c r="AP200" t="n">
+      <c r="AQ200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26166,15 +26768,18 @@
         <v>28</v>
       </c>
       <c r="AM201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN201" t="n">
         <v>35</v>
       </c>
-      <c r="AN201" t="n">
+      <c r="AO201" t="n">
         <v>10</v>
       </c>
-      <c r="AO201" t="n">
+      <c r="AP201" t="n">
         <v>4</v>
       </c>
-      <c r="AP201" t="n">
+      <c r="AQ201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26294,15 +26899,18 @@
         <v>28</v>
       </c>
       <c r="AM202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN202" t="n">
         <v>35</v>
       </c>
-      <c r="AN202" t="n">
+      <c r="AO202" t="n">
         <v>10</v>
       </c>
-      <c r="AO202" t="n">
+      <c r="AP202" t="n">
         <v>4</v>
       </c>
-      <c r="AP202" t="n">
+      <c r="AQ202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26422,15 +27030,18 @@
         <v>28</v>
       </c>
       <c r="AM203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN203" t="n">
         <v>35</v>
       </c>
-      <c r="AN203" t="n">
+      <c r="AO203" t="n">
         <v>10</v>
       </c>
-      <c r="AO203" t="n">
+      <c r="AP203" t="n">
         <v>4</v>
       </c>
-      <c r="AP203" t="n">
+      <c r="AQ203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26550,15 +27161,18 @@
         <v>28</v>
       </c>
       <c r="AM204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN204" t="n">
         <v>35</v>
       </c>
-      <c r="AN204" t="n">
+      <c r="AO204" t="n">
         <v>10</v>
       </c>
-      <c r="AO204" t="n">
+      <c r="AP204" t="n">
         <v>4</v>
       </c>
-      <c r="AP204" t="n">
+      <c r="AQ204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26678,15 +27292,18 @@
         <v>28</v>
       </c>
       <c r="AM205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN205" t="n">
         <v>35</v>
       </c>
-      <c r="AN205" t="n">
+      <c r="AO205" t="n">
         <v>10</v>
       </c>
-      <c r="AO205" t="n">
+      <c r="AP205" t="n">
         <v>4</v>
       </c>
-      <c r="AP205" t="n">
+      <c r="AQ205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26806,15 +27423,18 @@
         <v>28</v>
       </c>
       <c r="AM206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN206" t="n">
         <v>35</v>
       </c>
-      <c r="AN206" t="n">
+      <c r="AO206" t="n">
         <v>10</v>
       </c>
-      <c r="AO206" t="n">
+      <c r="AP206" t="n">
         <v>4</v>
       </c>
-      <c r="AP206" t="n">
+      <c r="AQ206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26934,15 +27554,18 @@
         <v>28</v>
       </c>
       <c r="AM207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN207" t="n">
         <v>35</v>
       </c>
-      <c r="AN207" t="n">
+      <c r="AO207" t="n">
         <v>10</v>
       </c>
-      <c r="AO207" t="n">
+      <c r="AP207" t="n">
         <v>4</v>
       </c>
-      <c r="AP207" t="n">
+      <c r="AQ207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27062,15 +27685,18 @@
         <v>28</v>
       </c>
       <c r="AM208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN208" t="n">
         <v>35</v>
       </c>
-      <c r="AN208" t="n">
+      <c r="AO208" t="n">
         <v>10</v>
       </c>
-      <c r="AO208" t="n">
+      <c r="AP208" t="n">
         <v>4</v>
       </c>
-      <c r="AP208" t="n">
+      <c r="AQ208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27190,15 +27816,18 @@
         <v>28</v>
       </c>
       <c r="AM209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN209" t="n">
         <v>45</v>
       </c>
-      <c r="AN209" t="n">
+      <c r="AO209" t="n">
         <v>9</v>
       </c>
-      <c r="AO209" t="n">
+      <c r="AP209" t="n">
         <v>67</v>
       </c>
-      <c r="AP209" t="n">
+      <c r="AQ209" t="n">
         <v>850</v>
       </c>
     </row>
@@ -27318,15 +27947,18 @@
         <v>28</v>
       </c>
       <c r="AM210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN210" t="n">
         <v>35</v>
       </c>
-      <c r="AN210" t="n">
+      <c r="AO210" t="n">
         <v>9</v>
       </c>
-      <c r="AO210" t="n">
+      <c r="AP210" t="n">
         <v>67</v>
       </c>
-      <c r="AP210" t="n">
+      <c r="AQ210" t="n">
         <v>850</v>
       </c>
     </row>
@@ -27446,15 +28078,18 @@
         <v>28</v>
       </c>
       <c r="AM211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN211" t="n">
         <v>45</v>
       </c>
-      <c r="AN211" t="n">
+      <c r="AO211" t="n">
         <v>9</v>
       </c>
-      <c r="AO211" t="n">
+      <c r="AP211" t="n">
         <v>67</v>
       </c>
-      <c r="AP211" t="n">
+      <c r="AQ211" t="n">
         <v>850</v>
       </c>
     </row>
@@ -27574,15 +28209,18 @@
         <v>28</v>
       </c>
       <c r="AM212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN212" t="n">
         <v>35</v>
       </c>
-      <c r="AN212" t="n">
+      <c r="AO212" t="n">
         <v>9</v>
       </c>
-      <c r="AO212" t="n">
+      <c r="AP212" t="n">
         <v>67</v>
       </c>
-      <c r="AP212" t="n">
+      <c r="AQ212" t="n">
         <v>850</v>
       </c>
     </row>
@@ -27702,15 +28340,18 @@
         <v>28</v>
       </c>
       <c r="AM213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN213" t="n">
         <v>46</v>
       </c>
-      <c r="AN213" t="n">
+      <c r="AO213" t="n">
         <v>26</v>
       </c>
-      <c r="AO213" t="n">
+      <c r="AP213" t="n">
         <v>68</v>
       </c>
-      <c r="AP213" t="n">
+      <c r="AQ213" t="n">
         <v>800</v>
       </c>
     </row>
@@ -27830,15 +28471,18 @@
         <v>20</v>
       </c>
       <c r="AM214" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN214" t="n">
         <v>47</v>
       </c>
-      <c r="AN214" t="n">
+      <c r="AO214" t="n">
         <v>27</v>
       </c>
-      <c r="AO214" t="n">
+      <c r="AP214" t="n">
         <v>4</v>
       </c>
-      <c r="AP214" t="n">
+      <c r="AQ214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27958,15 +28602,18 @@
         <v>22</v>
       </c>
       <c r="AM215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN215" t="n">
         <v>24</v>
       </c>
-      <c r="AN215" t="n">
+      <c r="AO215" t="n">
         <v>5</v>
       </c>
-      <c r="AO215" t="n">
+      <c r="AP215" t="n">
         <v>69</v>
       </c>
-      <c r="AP215" t="n">
+      <c r="AQ215" t="n">
         <v>500</v>
       </c>
     </row>
@@ -28086,15 +28733,18 @@
         <v>28</v>
       </c>
       <c r="AM216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN216" t="n">
         <v>35</v>
       </c>
-      <c r="AN216" t="n">
+      <c r="AO216" t="n">
         <v>10</v>
       </c>
-      <c r="AO216" t="n">
+      <c r="AP216" t="n">
         <v>70</v>
       </c>
-      <c r="AP216" t="n">
+      <c r="AQ216" t="n">
         <v>800</v>
       </c>
     </row>
@@ -28214,15 +28864,18 @@
         <v>28</v>
       </c>
       <c r="AM217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN217" t="n">
         <v>48</v>
       </c>
-      <c r="AN217" t="n">
+      <c r="AO217" t="n">
         <v>26</v>
       </c>
-      <c r="AO217" t="n">
+      <c r="AP217" t="n">
         <v>70</v>
       </c>
-      <c r="AP217" t="n">
+      <c r="AQ217" t="n">
         <v>800</v>
       </c>
     </row>
@@ -28342,15 +28995,18 @@
         <v>28</v>
       </c>
       <c r="AM218" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN218" t="n">
         <v>49</v>
       </c>
-      <c r="AN218" t="n">
+      <c r="AO218" t="n">
         <v>26</v>
       </c>
-      <c r="AO218" t="n">
+      <c r="AP218" t="n">
         <v>71</v>
       </c>
-      <c r="AP218" t="n">
+      <c r="AQ218" t="n">
         <v>800</v>
       </c>
     </row>
@@ -28470,15 +29126,18 @@
         <v>28</v>
       </c>
       <c r="AM219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN219" t="n">
         <v>3</v>
       </c>
-      <c r="AN219" t="n">
+      <c r="AO219" t="n">
         <v>10</v>
       </c>
-      <c r="AO219" t="n">
+      <c r="AP219" t="n">
         <v>70</v>
       </c>
-      <c r="AP219" t="n">
+      <c r="AQ219" t="n">
         <v>800</v>
       </c>
     </row>
@@ -28598,15 +29257,18 @@
         <v>4</v>
       </c>
       <c r="AM220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN220" t="n">
         <v>50</v>
       </c>
-      <c r="AN220" t="n">
+      <c r="AO220" t="n">
         <v>12</v>
       </c>
-      <c r="AO220" t="n">
+      <c r="AP220" t="n">
         <v>72</v>
       </c>
-      <c r="AP220" t="n">
+      <c r="AQ220" t="n">
         <v>500</v>
       </c>
     </row>
@@ -28726,15 +29388,18 @@
         <v>28</v>
       </c>
       <c r="AM221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN221" t="n">
         <v>39</v>
       </c>
-      <c r="AN221" t="n">
+      <c r="AO221" t="n">
         <v>10</v>
       </c>
-      <c r="AO221" t="n">
+      <c r="AP221" t="n">
         <v>73</v>
       </c>
-      <c r="AP221" t="n">
+      <c r="AQ221" t="n">
         <v>2200</v>
       </c>
     </row>
@@ -28854,15 +29519,18 @@
         <v>32</v>
       </c>
       <c r="AM222" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN222" t="n">
         <v>28</v>
       </c>
-      <c r="AN222" t="n">
+      <c r="AO222" t="n">
         <v>6</v>
       </c>
-      <c r="AO222" t="n">
+      <c r="AP222" t="n">
         <v>74</v>
       </c>
-      <c r="AP222" t="n">
+      <c r="AQ222" t="n">
         <v>800</v>
       </c>
     </row>
@@ -28982,15 +29650,18 @@
         <v>16</v>
       </c>
       <c r="AM223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN223" t="n">
         <v>51</v>
       </c>
-      <c r="AN223" t="n">
+      <c r="AO223" t="n">
         <v>6</v>
       </c>
-      <c r="AO223" t="n">
+      <c r="AP223" t="n">
         <v>75</v>
       </c>
-      <c r="AP223" t="n">
+      <c r="AQ223" t="n">
         <v>550</v>
       </c>
     </row>
@@ -29110,15 +29781,18 @@
         <v>32</v>
       </c>
       <c r="AM224" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN224" t="n">
         <v>52</v>
       </c>
-      <c r="AN224" t="n">
+      <c r="AO224" t="n">
         <v>6</v>
       </c>
-      <c r="AO224" t="n">
+      <c r="AP224" t="n">
         <v>75</v>
       </c>
-      <c r="AP224" t="n">
+      <c r="AQ224" t="n">
         <v>550</v>
       </c>
     </row>
@@ -29238,15 +29912,18 @@
         <v>14</v>
       </c>
       <c r="AM225" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN225" t="n">
         <v>53</v>
       </c>
-      <c r="AN225" t="n">
+      <c r="AO225" t="n">
         <v>3</v>
       </c>
-      <c r="AO225" t="n">
+      <c r="AP225" t="n">
         <v>75</v>
       </c>
-      <c r="AP225" t="n">
+      <c r="AQ225" t="n">
         <v>550</v>
       </c>
     </row>
@@ -29366,15 +30043,18 @@
         <v>18</v>
       </c>
       <c r="AM226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN226" t="n">
         <v>54</v>
       </c>
-      <c r="AN226" t="n">
+      <c r="AO226" t="n">
         <v>3</v>
       </c>
-      <c r="AO226" t="n">
+      <c r="AP226" t="n">
         <v>75</v>
       </c>
-      <c r="AP226" t="n">
+      <c r="AQ226" t="n">
         <v>550</v>
       </c>
     </row>
@@ -29494,15 +30174,18 @@
         <v>22</v>
       </c>
       <c r="AM227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN227" t="n">
         <v>55</v>
       </c>
-      <c r="AN227" t="n">
+      <c r="AO227" t="n">
         <v>3</v>
       </c>
-      <c r="AO227" t="n">
+      <c r="AP227" t="n">
         <v>75</v>
       </c>
-      <c r="AP227" t="n">
+      <c r="AQ227" t="n">
         <v>550</v>
       </c>
     </row>
@@ -29622,15 +30305,18 @@
         <v>28</v>
       </c>
       <c r="AM228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN228" t="n">
         <v>3</v>
       </c>
       <c r="AO228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP228" t="n">
         <v>75</v>
       </c>
-      <c r="AP228" t="n">
+      <c r="AQ228" t="n">
         <v>550</v>
       </c>
     </row>
@@ -29750,15 +30436,18 @@
         <v>24</v>
       </c>
       <c r="AM229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN229" t="n">
         <v>56</v>
       </c>
-      <c r="AN229" t="n">
+      <c r="AO229" t="n">
         <v>3</v>
       </c>
-      <c r="AO229" t="n">
+      <c r="AP229" t="n">
         <v>75</v>
       </c>
-      <c r="AP229" t="n">
+      <c r="AQ229" t="n">
         <v>550</v>
       </c>
     </row>
@@ -29878,15 +30567,18 @@
         <v>18</v>
       </c>
       <c r="AM230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN230" t="n">
         <v>5</v>
       </c>
-      <c r="AN230" t="n">
+      <c r="AO230" t="n">
         <v>1</v>
       </c>
-      <c r="AO230" t="n">
+      <c r="AP230" t="n">
         <v>76</v>
       </c>
-      <c r="AP230" t="n">
+      <c r="AQ230" t="n">
         <v>550</v>
       </c>
     </row>
@@ -30006,15 +30698,18 @@
         <v>28</v>
       </c>
       <c r="AM231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN231" t="n">
         <v>57</v>
       </c>
-      <c r="AN231" t="n">
+      <c r="AO231" t="n">
         <v>3</v>
       </c>
-      <c r="AO231" t="n">
+      <c r="AP231" t="n">
         <v>77</v>
       </c>
-      <c r="AP231" t="n">
+      <c r="AQ231" t="n">
         <v>800</v>
       </c>
     </row>
@@ -30134,15 +30829,18 @@
         <v>18</v>
       </c>
       <c r="AM232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN232" t="n">
         <v>23</v>
       </c>
-      <c r="AN232" t="n">
+      <c r="AO232" t="n">
         <v>28</v>
       </c>
-      <c r="AO232" t="n">
+      <c r="AP232" t="n">
         <v>78</v>
       </c>
-      <c r="AP232" t="n">
+      <c r="AQ232" t="n">
         <v>700</v>
       </c>
     </row>
@@ -30262,15 +30960,18 @@
         <v>28</v>
       </c>
       <c r="AM233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN233" t="n">
         <v>45</v>
       </c>
-      <c r="AN233" t="n">
+      <c r="AO233" t="n">
         <v>29</v>
       </c>
-      <c r="AO233" t="n">
+      <c r="AP233" t="n">
         <v>79</v>
       </c>
-      <c r="AP233" t="n">
+      <c r="AQ233" t="n">
         <v>750</v>
       </c>
     </row>
@@ -30390,15 +31091,18 @@
         <v>56</v>
       </c>
       <c r="AM234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN234" t="n">
         <v>35</v>
       </c>
-      <c r="AN234" t="n">
+      <c r="AO234" t="n">
         <v>3</v>
       </c>
-      <c r="AO234" t="n">
+      <c r="AP234" t="n">
         <v>80</v>
       </c>
-      <c r="AP234" t="n">
+      <c r="AQ234" t="n">
         <v>750</v>
       </c>
     </row>
@@ -30518,15 +31222,18 @@
         <v>4</v>
       </c>
       <c r="AM235" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN235" t="n">
         <v>50</v>
       </c>
-      <c r="AN235" t="n">
+      <c r="AO235" t="n">
         <v>12</v>
       </c>
-      <c r="AO235" t="n">
+      <c r="AP235" t="n">
         <v>81</v>
       </c>
-      <c r="AP235" t="n">
+      <c r="AQ235" t="n">
         <v>350</v>
       </c>
     </row>
@@ -30646,15 +31353,18 @@
         <v>4</v>
       </c>
       <c r="AM236" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN236" t="n">
         <v>58</v>
       </c>
-      <c r="AN236" t="n">
+      <c r="AO236" t="n">
         <v>12</v>
       </c>
-      <c r="AO236" t="n">
+      <c r="AP236" t="n">
         <v>81</v>
       </c>
-      <c r="AP236" t="n">
+      <c r="AQ236" t="n">
         <v>350</v>
       </c>
     </row>
@@ -30774,15 +31484,18 @@
         <v>4</v>
       </c>
       <c r="AM237" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN237" t="n">
         <v>50</v>
       </c>
-      <c r="AN237" t="n">
+      <c r="AO237" t="n">
         <v>12</v>
       </c>
-      <c r="AO237" t="n">
+      <c r="AP237" t="n">
         <v>82</v>
       </c>
-      <c r="AP237" t="n">
+      <c r="AQ237" t="n">
         <v>400</v>
       </c>
     </row>
@@ -30902,15 +31615,18 @@
         <v>18</v>
       </c>
       <c r="AM238" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN238" t="n">
         <v>59</v>
       </c>
-      <c r="AN238" t="n">
+      <c r="AO238" t="n">
         <v>30</v>
       </c>
-      <c r="AO238" t="n">
+      <c r="AP238" t="n">
         <v>83</v>
       </c>
-      <c r="AP238" t="n">
+      <c r="AQ238" t="n">
         <v>980</v>
       </c>
     </row>
@@ -31030,15 +31746,18 @@
         <v>64</v>
       </c>
       <c r="AM239" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN239" t="n">
         <v>60</v>
       </c>
-      <c r="AN239" t="n">
+      <c r="AO239" t="n">
         <v>23</v>
       </c>
-      <c r="AO239" t="n">
+      <c r="AP239" t="n">
         <v>84</v>
       </c>
-      <c r="AP239" t="n">
+      <c r="AQ239" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -31158,15 +31877,18 @@
         <v>32</v>
       </c>
       <c r="AM240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN240" t="n">
         <v>61</v>
       </c>
-      <c r="AN240" t="n">
+      <c r="AO240" t="n">
         <v>23</v>
       </c>
-      <c r="AO240" t="n">
+      <c r="AP240" t="n">
         <v>85</v>
       </c>
-      <c r="AP240" t="n">
+      <c r="AQ240" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -31286,15 +32008,18 @@
         <v>28</v>
       </c>
       <c r="AM241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN241" t="n">
         <v>36</v>
       </c>
-      <c r="AN241" t="n">
+      <c r="AO241" t="n">
         <v>3</v>
       </c>
-      <c r="AO241" t="n">
+      <c r="AP241" t="n">
         <v>86</v>
       </c>
-      <c r="AP241" t="n">
+      <c r="AQ241" t="n">
         <v>800</v>
       </c>
     </row>
@@ -31414,15 +32139,18 @@
         <v>28</v>
       </c>
       <c r="AM242" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN242" t="n">
         <v>62</v>
       </c>
-      <c r="AN242" t="n">
+      <c r="AO242" t="n">
         <v>3</v>
       </c>
-      <c r="AO242" t="n">
+      <c r="AP242" t="n">
         <v>86</v>
       </c>
-      <c r="AP242" t="n">
+      <c r="AQ242" t="n">
         <v>800</v>
       </c>
     </row>
